--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -42,6 +42,54 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
   </si>
   <si>
     <t>Tuesday, 7 October, 2025 9:21 AM</t>
@@ -254,10 +302,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +314,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +722,136 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>23</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>34.670000000000002</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>29</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +865,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -89,10 +101,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 7 October, 2025 9:21 AM</t>
+    <t>Tuesday, 7 October, 2025 9:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -783,7 +792,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -805,53 +814,86 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>34.670000000000002</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>27</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>28</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>29</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>99.670000000000002</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>32</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -875,10 +917,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
     <t>4:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -74,16 +86,37 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
     <t>7:3</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -92,16 +125,40 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 9:22 AM</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 7 October, 2025 9:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -792,7 +849,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -825,7 +882,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -847,53 +904,251 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>29</v>
       </c>
-      <c t="s" r="Q10" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>99.670000000000002</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>30</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>27</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>31</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>32</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>33</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>37</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>33</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>37</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>33</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>41</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>37</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>33</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>32</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>33</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>225.52500000000001</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>51</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -922,10 +1177,40 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -98,6 +107,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -158,7 +176,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 9:26 AM</t>
+    <t>Tuesday, 7 October, 2025 9:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -898,7 +916,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -908,11 +926,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -924,14 +942,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -941,11 +959,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -957,31 +975,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -990,31 +1008,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1023,28 +1041,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>22</v>
@@ -1056,20 +1074,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1096,13 +1114,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1117,38 +1135,104 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>225.52500000000001</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>49</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>43</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>39</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>50</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q17" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>38</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>39</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>53</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>284.92500000000001</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>55</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>56</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>57</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1207,10 +1291,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -176,7 +176,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 9:51 AM</t>
+    <t>Tuesday, 7 October, 2025 9:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -176,7 +185,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 9:52 AM</t>
+    <t>Tuesday, 7 October, 2025 10:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -982,7 +991,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1015,7 +1024,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1025,11 +1034,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1041,31 +1050,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1074,28 +1083,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1107,20 +1116,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1147,13 +1156,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1180,13 +1189,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1201,38 +1210,71 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>284.92500000000001</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>55</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>41</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>42</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>56</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>57</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>307.69499999999999</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>58</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>59</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>60</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1301,10 +1343,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -74,12 +74,24 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -125,6 +137,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -137,9 +158,6 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -185,7 +203,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 10:06 AM</t>
+    <t>Tuesday, 7 October, 2025 10:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -898,15 +916,15 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>22</v>
@@ -918,7 +936,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -935,14 +953,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -951,14 +969,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -991,7 +1009,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1001,11 +1019,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1017,14 +1035,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1034,11 +1052,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1050,14 +1068,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1067,11 +1085,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1083,20 +1101,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1129,18 +1147,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1149,28 +1167,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1182,20 +1200,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1222,13 +1240,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1243,38 +1261,104 @@
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>307.69499999999999</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>58</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>52</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>23</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>59</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>60</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>48</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>23</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>62</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>511.69499999999999</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>64</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>65</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>66</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1348,10 +1432,20 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -98,6 +110,18 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
@@ -110,9 +134,6 @@
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -167,9 +188,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -203,7 +221,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 10:51 AM</t>
+    <t>Tuesday, 7 October, 2025 10:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -943,7 +961,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -953,11 +971,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>22</v>
@@ -969,7 +987,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -986,14 +1004,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1002,14 +1020,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1019,11 +1037,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1035,14 +1053,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1052,11 +1070,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1068,14 +1086,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1085,11 +1103,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1101,14 +1119,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1118,14 +1136,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1134,14 +1152,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1151,11 +1169,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1167,28 +1185,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1200,31 +1218,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1233,14 +1251,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1273,7 +1291,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1306,7 +1324,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1327,38 +1345,104 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>511.69499999999999</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>64</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>27</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>23</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>65</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>66</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>67</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>55</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>23</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>68</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>673.42499999999995</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>70</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>71</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>72</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1442,10 +1526,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -221,7 +221,13 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 10:56 AM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 7 October, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1411,38 +1417,71 @@
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>673.42499999999995</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>70</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
         <v>71</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>23</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>56</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>693.42499999999995</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
         <v>72</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>73</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>74</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1536,10 +1575,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -227,7 +227,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 10:59 AM</t>
+    <t>Tuesday, 7 October, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALFACARENO 2MCG/ML ORAL DROPS. 10 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -77,9 +92,6 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -92,9 +104,6 @@
     <t>FERRODUONAL 30 CAP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -227,7 +236,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 11:00 AM</t>
+    <t>Tuesday, 7 October, 2025 11:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -918,7 +927,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -927,20 +936,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -951,7 +960,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -967,13 +976,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -984,7 +993,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1000,7 +1009,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1017,7 +1026,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1033,7 +1042,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1043,11 +1052,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1059,14 +1068,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1083,7 +1092,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1099,7 +1108,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1116,7 +1125,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1132,7 +1141,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1149,7 +1158,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1165,7 +1174,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1182,7 +1191,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1215,7 +1224,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1231,7 +1240,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1241,11 +1250,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1257,31 +1266,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1290,20 +1299,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1314,7 +1323,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1330,13 +1339,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1347,7 +1356,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1363,13 +1372,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1380,7 +1389,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1396,13 +1405,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1413,7 +1422,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1429,59 +1438,92 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>693.42499999999995</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>72</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>73</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
         <v>74</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>27</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>59</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>845.42499999999995</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>75</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>76</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>77</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1580,10 +1622,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -62,21 +62,30 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
     <t>47.0250</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -212,15 +221,21 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>قصافات كبار لوكس</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -236,7 +251,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 11:05 AM</t>
+    <t>Tuesday, 7 October, 2025 11:17 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -943,7 +958,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -953,11 +968,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -969,31 +984,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1002,20 +1017,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1042,7 +1057,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1075,7 +1090,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1085,14 +1100,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1101,14 +1116,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1141,7 +1156,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1174,7 +1189,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1207,7 +1222,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1240,7 +1255,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1257,7 +1272,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1273,7 +1288,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1283,14 +1298,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1299,31 +1314,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1332,20 +1347,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1378,7 +1393,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1411,7 +1426,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1438,21 +1453,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1464,66 +1479,132 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>845.42499999999995</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>75</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>61</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>30</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>76</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>77</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>78</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>79</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>30</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>62</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>903.32500000000005</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>80</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>81</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>82</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1627,10 +1708,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -251,7 +251,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 11:17 AM</t>
+    <t>Tuesday, 7 October, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -74,16 +89,37 @@
     <t>42.9000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
     <t>142.50</t>
   </si>
   <si>
-    <t>47.0250</t>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -122,9 +158,6 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>65.0000</t>
   </si>
   <si>
@@ -191,67 +224,88 @@
     <t>7:3</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>21:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>قصافات كبار لوكس</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>قصافات كبار لوكس</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 25 مل</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 7 October, 2025 11:18 AM</t>
+    <t>Tuesday, 7 October, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -958,7 +1012,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -968,11 +1022,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -984,14 +1038,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1008,7 +1062,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1024,13 +1078,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1041,7 +1095,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1057,7 +1111,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1067,14 +1121,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1083,14 +1137,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1100,14 +1154,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1116,31 +1170,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1149,14 +1203,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1166,14 +1220,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1182,14 +1236,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1199,14 +1253,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1215,14 +1269,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1232,11 +1286,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1248,7 +1302,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1265,11 +1319,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1281,14 +1335,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1298,14 +1352,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1314,14 +1368,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1331,11 +1385,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1347,31 +1401,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1380,28 +1434,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1413,31 +1467,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1446,28 +1500,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1479,31 +1533,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1512,28 +1566,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1545,66 +1599,198 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>86</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>87</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>42</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>88</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>903.32500000000005</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>80</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>81</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>82</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>90</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>42</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>88</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>76</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>42</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>93</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>96</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>42</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>77</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1130.3499999999999</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>98</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>99</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>100</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1718,10 +1904,30 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -125,13 +125,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>4:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
@@ -1161,7 +1161,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1760,7 +1760,7 @@
     </row>
     <row r="32" ht="25.5" customHeight="1">
       <c r="P32" s="13">
-        <v>1130.3499999999999</v>
+        <v>1146.1900000000001</v>
       </c>
       <c r="Q32" s="13"/>
     </row>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -305,7 +305,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 11:30 AM</t>
+    <t>Tuesday, 7 October, 2025 11:35 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>CONVENTIN 100MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -155,6 +167,18 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>GENUPHIL ORIGINAL 50 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -173,15 +197,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>MEDEXAFLAM 15MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -248,9 +272,6 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -305,7 +326,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 11:35 AM</t>
+    <t>Tuesday, 7 October, 2025 11:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1045,7 +1066,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1055,14 +1076,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1071,14 +1092,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1095,7 +1116,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1161,7 +1182,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1177,13 +1198,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1194,7 +1215,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1210,21 +1231,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1236,14 +1257,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,11 +1274,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1269,14 +1290,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1286,11 +1307,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1302,7 +1323,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1319,14 +1340,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1335,14 +1356,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1352,11 +1373,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1368,14 +1389,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1385,11 +1406,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1401,7 +1422,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1418,11 +1439,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1434,14 +1455,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1451,14 +1472,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1467,14 +1488,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1484,11 +1505,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1507,7 +1528,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1517,14 +1538,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1533,31 +1554,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,31 +1587,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,31 +1620,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,31 +1653,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,7 +1686,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1678,7 +1699,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1686,10 +1707,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1698,31 +1719,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1731,66 +1752,165 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1146.1900000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>97</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>12</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>46</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>95</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>98</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c t="s" r="Q32" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>99</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>84</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>46</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>100</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>102</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>103</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>46</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>85</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1238.01</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>105</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>106</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>107</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1924,10 +2044,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 11:36 AM</t>
+    <t>Tuesday, 7 October, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>COMPHOLEX MASSAGE CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN 100MG 30 CAP.</t>
   </si>
   <si>
@@ -167,12 +176,21 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
     <t>GENUPHIL ORIGINAL 50 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>280.00</t>
   </si>
   <si>
@@ -326,7 +344,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 11:37 AM</t>
+    <t>Tuesday, 7 October, 2025 11:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1066,7 +1084,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1076,14 +1094,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1092,14 +1110,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1116,7 +1134,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1132,7 +1150,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1142,14 +1160,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1158,14 +1176,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1175,11 +1193,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1191,14 +1209,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1208,14 +1226,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1224,31 +1242,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1257,20 +1275,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1297,7 +1315,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1307,14 +1325,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1323,31 +1341,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1356,14 +1374,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1396,7 +1414,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1406,14 +1424,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1429,7 +1447,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1439,11 +1457,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1455,14 +1473,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1472,11 +1490,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1488,14 +1506,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1505,11 +1523,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1528,7 +1546,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1561,7 +1579,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1578,7 +1596,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1594,7 +1612,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1604,11 +1622,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1620,14 +1638,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1666,18 +1684,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1686,28 +1704,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1719,20 +1737,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1743,7 +1761,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1759,21 +1777,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1785,7 +1803,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1798,18 +1816,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1825,24 +1843,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1851,66 +1869,132 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>105</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>90</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>49</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>106</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>108</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>109</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>49</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>91</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1238.01</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>105</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>106</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>107</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1362.3599999999999</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>111</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>112</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>113</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2059,10 +2143,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -188,15 +188,6 @@
     <t>64.3500</t>
   </si>
   <si>
-    <t>GENUPHIL ORIGINAL 50 TAB</t>
-  </si>
-  <si>
-    <t>280.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -344,7 +335,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 11:48 AM</t>
+    <t>Tuesday, 7 October, 2025 11:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1381,7 +1372,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1391,14 +1382,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1407,14 +1398,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1424,14 +1415,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1440,14 +1431,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1457,11 +1448,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1473,14 +1464,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1490,11 +1481,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1506,14 +1497,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1523,11 +1514,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1546,7 +1537,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1579,7 +1570,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1612,7 +1603,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1629,7 +1620,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1645,7 +1636,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1655,14 +1646,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1671,14 +1662,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1688,14 +1679,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1704,31 +1695,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1737,14 +1728,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1761,7 +1752,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,7 +1785,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1810,7 +1801,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1820,14 +1811,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1836,14 +1827,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1853,14 +1844,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1869,14 +1860,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1886,7 +1877,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1909,7 +1900,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1919,82 +1910,49 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="A36" s="7">
-        <v>30</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c t="s" r="C36" s="8">
+      <c r="P36" s="13">
+        <v>1306.3599999999999</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
         <v>108</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c t="s" r="H36" s="9">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
         <v>109</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c t="s" r="L36" s="10">
-        <v>49</v>
-      </c>
-      <c r="M36" s="10"/>
-      <c t="s" r="N36" s="8">
-        <v>91</v>
-      </c>
-      <c r="O36" s="8"/>
-      <c t="s" r="P36" s="11">
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
         <v>110</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1362.3599999999999</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>111</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>112</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>113</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2148,15 +2106,10 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>A-VITON 50.000 I.U. 20 CAPS.</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -335,7 +344,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 11:49 AM</t>
+    <t>Tuesday, 7 October, 2025 11:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1042,7 +1051,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1052,14 +1061,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1068,14 +1077,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1092,7 +1101,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1108,7 +1117,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1118,14 +1127,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1134,14 +1143,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1158,7 +1167,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1174,7 +1183,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1184,14 +1193,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1200,14 +1209,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1217,11 +1226,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1233,14 +1242,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1250,14 +1259,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1266,31 +1275,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1299,20 +1308,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1339,24 +1348,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1365,31 +1374,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1398,14 +1407,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1415,14 +1424,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1431,14 +1440,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1448,11 +1457,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1464,14 +1473,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1481,11 +1490,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1497,14 +1506,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1514,11 +1523,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1537,7 +1546,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1570,7 +1579,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1603,7 +1612,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1620,7 +1629,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1636,7 +1645,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1646,14 +1655,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1662,14 +1671,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1679,14 +1688,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1695,31 +1704,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1728,20 +1737,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1752,7 +1761,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1774,7 +1783,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1785,7 +1794,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1801,24 +1810,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1827,31 +1836,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1860,31 +1869,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1900,59 +1909,92 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>108</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>109</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>52</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>91</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1306.3599999999999</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>108</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>109</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>110</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1325.3599999999999</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>111</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>112</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>113</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2106,10 +2148,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -224,6 +224,18 @@
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -251,6 +263,18 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -290,6 +314,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -329,22 +362,16 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 11:58 AM</t>
+    <t>Tuesday, 7 October, 2025 12:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1546,7 +1573,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1556,14 +1583,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1572,14 +1599,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1589,11 +1616,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1605,14 +1632,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1622,11 +1649,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1638,14 +1665,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1655,14 +1682,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1671,14 +1698,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1688,11 +1715,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1704,14 +1731,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1721,11 +1748,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1737,31 +1764,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1777,21 +1804,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1803,14 +1830,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1820,11 +1847,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>33</v>
@@ -1836,14 +1863,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1853,11 +1880,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1869,7 +1896,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1886,14 +1913,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1902,14 +1929,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1919,11 +1946,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>33</v>
@@ -1935,14 +1962,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1952,49 +1979,148 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1325.3599999999999</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>111</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>114</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>12</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>52</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>112</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>113</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>116</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>98</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>52</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>73</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>118</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>102</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>52</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>99</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1434.405</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>120</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>121</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>122</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2153,10 +2279,25 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -371,7 +371,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 12:55 PM</t>
+    <t>Tuesday, 7 October, 2025 12:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -371,7 +383,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 12:56 PM</t>
+    <t>Tuesday, 7 October, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1128,7 +1140,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1144,7 +1156,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1154,14 +1166,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1170,14 +1182,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1194,7 +1206,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1210,7 +1222,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1220,14 +1232,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1236,14 +1248,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1260,7 +1272,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1326,7 +1338,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1342,13 +1354,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1359,7 +1371,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1375,21 +1387,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1401,20 +1413,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1425,7 +1437,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1441,24 +1453,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1467,14 +1479,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1484,14 +1496,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1507,7 +1519,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1517,11 +1529,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1533,14 +1545,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1550,11 +1562,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1566,14 +1578,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1595,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1606,7 +1618,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1616,14 +1628,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1632,14 +1644,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1649,11 +1661,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1665,14 +1677,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1682,11 +1694,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1698,14 +1710,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1738,7 +1750,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,14 +1760,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1764,14 +1776,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1781,14 +1793,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1797,14 +1809,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1814,14 +1826,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1843,7 +1855,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1854,7 +1866,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1876,7 +1888,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1884,10 +1896,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,28 +1908,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1929,7 +1941,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1942,18 +1954,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1962,20 +1974,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1986,7 +1998,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2002,24 +2014,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2028,31 +2040,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2061,7 +2073,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2074,53 +2086,86 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>122</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>106</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>56</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>103</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1434.405</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>120</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>121</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>122</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1457.405</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>124</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>125</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>126</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2294,10 +2339,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -221,12 +233,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
     <t>MEDEXAFLAM 15MG 20 TABS.</t>
   </si>
   <si>
@@ -248,6 +254,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -314,6 +326,18 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -383,7 +407,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 12:57 PM</t>
+    <t>Tuesday, 7 October, 2025 2:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1140,7 +1164,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1173,7 +1197,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1189,7 +1213,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1199,14 +1223,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1215,14 +1239,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1239,7 +1263,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1255,7 +1279,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1265,14 +1289,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1281,14 +1305,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1305,7 +1329,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1371,7 +1395,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1387,13 +1411,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1404,7 +1428,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1420,21 +1444,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1446,20 +1470,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1470,7 +1494,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1486,24 +1510,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1512,14 +1536,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1529,14 +1553,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1552,7 +1576,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1562,11 +1586,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1585,7 +1609,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1595,11 +1619,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1611,14 +1635,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1628,14 +1652,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1644,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1661,14 +1685,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1677,14 +1701,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1694,11 +1718,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1710,14 +1734,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1727,11 +1751,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1743,14 +1767,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1760,11 +1784,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1776,14 +1800,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1793,14 +1817,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1809,14 +1833,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1826,11 +1850,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1842,14 +1866,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1859,11 +1883,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1875,31 +1899,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1908,24 +1932,24 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1941,28 +1965,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1974,31 +1998,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2007,28 +2031,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2040,7 +2064,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2053,18 +2077,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2073,31 +2097,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2113,59 +2137,158 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1457.405</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>126</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>12</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>60</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>124</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>125</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>126</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>128</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>110</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>60</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>79</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>130</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>114</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>60</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>111</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1542.135</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>132</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>133</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>134</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2344,10 +2467,25 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -407,7 +407,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 2:09 PM</t>
+    <t>Tuesday, 7 October, 2025 2:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -377,16 +377,22 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>سلاكه اسنان بلاستك</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>قصافات كبار لوكس</t>
   </si>
   <si>
     <t>11:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -2170,7 +2176,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2184,10 +2190,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2203,7 +2209,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2213,7 +2219,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2236,7 +2242,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2246,49 +2252,82 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>132</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>114</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>60</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>111</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1542.135</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>132</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>133</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1557.135</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
         <v>134</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>135</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>136</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2482,10 +2521,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -413,7 +413,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 2:52 PM</t>
+    <t>Tuesday, 7 October, 2025 3:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -242,6 +242,18 @@
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
+    <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -338,6 +350,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -383,12 +407,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>قصافات كبار لوكس</t>
   </si>
   <si>
@@ -398,7 +416,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>30.0000</t>
+    <t>45.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -413,7 +431,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 3:28 PM</t>
+    <t>Tuesday, 7 October, 2025 3:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1698,7 +1716,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1714,7 +1732,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1724,14 +1742,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1740,14 +1758,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1757,11 +1775,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1773,14 +1791,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1790,11 +1808,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1806,14 +1824,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1823,11 +1841,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1839,14 +1857,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1879,7 +1897,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1922,14 +1940,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1938,14 +1956,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1955,14 +1973,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1984,7 +2002,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2028,7 +2046,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2058,7 +2076,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2087,14 +2105,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2103,14 +2121,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2120,14 +2138,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2153,11 +2171,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2186,14 +2204,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2202,14 +2220,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2219,14 +2237,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2252,14 +2270,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2285,49 +2303,115 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>118</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>60</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>83</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>138</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>122</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>60</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>119</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1557.135</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>134</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>135</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>136</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1640.135</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>140</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>141</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>142</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2526,10 +2610,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -242,6 +242,18 @@
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
+    <t>NERCEFAXON 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -257,9 +269,6 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -389,7 +398,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -398,7 +407,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>سلاكه اسنان بلاستك</t>
@@ -431,7 +443,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 3:31 PM</t>
+    <t>Tuesday, 7 October, 2025 3:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1716,7 +1728,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1749,7 +1761,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1765,7 +1777,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1779,10 +1791,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1791,14 +1803,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1808,11 +1820,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1831,7 +1843,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1864,7 +1876,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1897,7 +1909,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1907,11 +1919,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1923,14 +1935,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1947,7 +1959,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1963,7 +1975,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1973,14 +1985,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2006,14 +2018,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2022,28 +2034,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2055,14 +2067,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,11 +2084,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2088,14 +2100,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2105,14 +2117,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,14 +2133,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2138,14 +2150,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2161,7 +2173,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2171,11 +2183,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2211,7 +2223,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2227,7 +2239,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2237,14 +2249,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2253,14 +2265,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2270,11 +2282,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2303,14 +2315,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2336,14 +2348,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2369,49 +2381,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>125</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>60</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>122</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1640.135</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>140</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>141</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>142</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1708.135</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>144</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>145</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>146</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2620,10 +2665,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -359,10 +359,52 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>سلاكه اسنان بلاستك</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>15.00</t>
@@ -371,54 +413,6 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>سلاكه اسنان بلاستك</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>قصافات كبار لوكس</t>
   </si>
   <si>
@@ -428,7 +422,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>45.0000</t>
+    <t>30.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -443,7 +437,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 3:45 PM</t>
+    <t>Tuesday, 7 October, 2025 3:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2124,7 +2118,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2154,10 +2148,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2166,14 +2160,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2183,14 +2177,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,7 +2193,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2216,14 +2210,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>78</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2239,7 +2233,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2249,14 +2243,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2282,11 +2276,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2305,7 +2299,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2315,14 +2309,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2338,7 +2332,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2348,14 +2342,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2381,82 +2375,49 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="A47" s="7">
-        <v>41</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c t="s" r="C47" s="8">
+      <c r="P47" s="13">
+        <v>1678.135</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
         <v>142</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c t="s" r="H47" s="9">
-        <v>125</v>
-      </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c t="s" r="L47" s="10">
-        <v>60</v>
-      </c>
-      <c r="M47" s="10"/>
-      <c t="s" r="N47" s="8">
-        <v>122</v>
-      </c>
-      <c r="O47" s="8"/>
-      <c t="s" r="P47" s="11">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
         <v>143</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1708.135</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
         <v>144</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>145</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>146</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2665,15 +2626,10 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -437,7 +437,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 3:47 PM</t>
+    <t>Tuesday, 7 October, 2025 3:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -329,6 +329,15 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">VENTAMOR ROLL ON </t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -437,7 +446,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 3:48 PM</t>
+    <t>Tuesday, 7 October, 2025 3:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2002,24 +2011,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2045,14 +2054,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2061,28 +2070,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2094,14 +2103,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2144,14 +2153,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2167,7 +2176,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2217,7 +2226,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2259,14 +2268,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2276,11 +2285,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2342,11 +2351,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>41</v>
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2375,49 +2384,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>143</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>124</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>60</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>121</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1678.135</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>142</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>143</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>144</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1818.135</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>145</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>146</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>147</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2626,10 +2668,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -446,7 +446,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 3:49 PM</t>
+    <t>Tuesday, 7 October, 2025 3:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -44,24 +44,51 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ALBOTHYL 1.8% VAG. JEL 40 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALFACARENO 2MCG/ML ORAL DROPS. 10 ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>152.00</t>
   </si>
   <si>
     <t>152.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -74,9 +101,6 @@
     <t>9.1200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>A-VITON 50.000 I.U. 20 CAPS.</t>
   </si>
   <si>
@@ -212,9 +236,6 @@
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>195.00</t>
   </si>
   <si>
@@ -233,6 +254,18 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>-55.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>MEDEXAFLAM 15MG 20 TABS.</t>
   </si>
   <si>
@@ -338,6 +371,12 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -386,9 +425,6 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -407,9 +443,6 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
@@ -443,10 +476,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 7 October, 2025 3:55 PM</t>
+    <t>Tuesday, 7 October, 2025 4:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1153,7 +1183,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1163,14 +1193,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1179,14 +1209,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1196,14 +1226,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1212,14 +1242,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1236,7 +1266,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1269,7 +1299,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1285,7 +1315,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1295,14 +1325,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1311,14 +1341,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1328,14 +1358,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1344,14 +1374,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1361,14 +1391,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1377,14 +1407,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1394,14 +1424,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1410,14 +1440,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1434,7 +1464,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1467,7 +1497,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1483,13 +1513,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1516,7 +1546,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1526,14 +1556,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1542,28 +1572,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1575,14 +1605,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1592,14 +1622,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1608,31 +1638,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1641,7 +1671,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1658,11 +1688,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1674,14 +1704,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1691,14 +1721,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1707,14 +1737,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1724,14 +1754,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1740,14 +1770,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1757,14 +1787,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1773,14 +1803,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1790,11 +1820,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1813,7 +1843,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1823,14 +1853,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1839,14 +1869,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1856,14 +1886,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1872,14 +1902,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1889,11 +1919,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1905,14 +1935,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1922,14 +1952,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1938,14 +1968,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1955,14 +1985,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1971,14 +2001,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1988,11 +2018,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2004,28 +2034,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2037,14 +2067,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2054,14 +2084,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2070,14 +2100,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2087,14 +2117,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2103,31 +2133,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2136,31 +2166,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2169,28 +2199,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2202,31 +2232,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2235,20 +2265,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2259,7 +2289,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2268,31 +2298,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2301,31 +2331,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2334,31 +2364,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2374,24 +2404,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2400,66 +2430,198 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1818.135</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>145</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>148</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>149</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>68</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>146</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>150</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>23</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>68</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>146</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>152</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>133</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>68</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>97</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>154</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>137</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>68</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>134</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>1912.135</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>155</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>156</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>157</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2673,10 +2835,30 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>152.0000</t>
   </si>
   <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -158,9 +170,6 @@
     <t>CONVENTIN 100MG 30 CAP.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -188,6 +197,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>136.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -224,6 +242,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
     <t>FERRODUONAL 30 CAP</t>
   </si>
   <si>
@@ -266,6 +293,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>LIMITLESS MAN MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>MEDEXAFLAM 15MG 20 TABS.</t>
   </si>
   <si>
@@ -476,7 +512,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 4:02 PM</t>
+    <t>Tuesday, 7 October, 2025 4:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1249,7 +1285,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1259,14 +1295,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1275,14 +1311,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1299,7 +1335,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1332,7 +1368,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1365,7 +1401,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1381,7 +1417,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1391,14 +1427,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1407,14 +1443,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1431,7 +1467,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1447,7 +1483,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1464,7 +1500,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1480,7 +1516,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1490,14 +1526,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1506,14 +1542,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1523,11 +1559,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1539,14 +1575,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1556,14 +1592,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1572,31 +1608,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1605,14 +1641,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1622,14 +1658,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1638,20 +1674,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1662,7 +1698,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1678,7 +1714,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1688,14 +1724,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1704,14 +1740,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1721,14 +1757,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1737,31 +1773,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1770,14 +1806,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1787,14 +1823,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1803,14 +1839,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1820,11 +1856,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1836,14 +1872,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1853,14 +1889,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1869,14 +1905,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1886,14 +1922,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1902,14 +1938,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1919,14 +1955,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1942,7 +1978,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1952,11 +1988,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1968,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1992,7 +2028,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2008,7 +2044,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2018,11 +2054,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2034,14 +2070,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2051,14 +2087,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2067,14 +2103,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2088,7 +2124,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2100,14 +2136,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2117,14 +2153,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2133,31 +2169,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2166,14 +2202,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2183,14 +2219,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2216,11 +2252,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2232,14 +2268,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2249,11 +2285,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2265,20 +2301,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2311,18 +2347,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2331,31 +2367,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2364,31 +2400,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2397,20 +2433,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2421,7 +2457,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2443,7 +2479,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2454,7 +2490,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2476,11 +2512,11 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2509,18 +2545,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2529,31 +2565,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2562,66 +2598,198 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1912.135</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>155</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>156</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>157</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>160</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>161</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>74</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>158</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>162</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>23</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>74</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>158</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>164</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>145</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>74</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>109</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>166</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>149</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>74</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>146</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2380.6999999999998</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>167</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>168</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>169</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2855,10 +3023,30 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -137,225 +137,243 @@
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>23.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>COMPHOLEX MASSAGE CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 100MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>204.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>-55.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>LIMITLESS MAN MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>LOTERANOL 0.5% EYE DROPS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>MEDEXAFLAM 15MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>NERCEFAXON 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>COMPHOLEX MASSAGE CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 100MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>136.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>46.0350</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>KAPRON 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>-55.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>LIMITLESS MAN MAX 30 TABS</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>MEDEXAFLAM 15MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>NERCEFAXON 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>265.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -398,6 +416,15 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>TRIOCOBAVIT 30 CAPS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">VENTAMOR ROLL ON </t>
   </si>
   <si>
@@ -419,6 +446,15 @@
     <t>7:3</t>
   </si>
   <si>
+    <t>XANPRAZAN 20 MG TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -512,7 +548,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 4:18 PM</t>
+    <t>Tuesday, 7 October, 2025 4:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1401,7 +1437,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1582,7 +1618,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1599,7 +1635,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1813,7 +1849,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1823,11 +1859,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1839,14 +1875,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1856,14 +1892,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1872,14 +1908,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1889,14 +1925,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1905,7 +1941,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1922,14 +1958,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1945,7 +1981,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1955,14 +1991,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1971,31 +2007,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2004,14 +2040,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2021,14 +2057,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2037,14 +2073,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2054,11 +2090,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2070,14 +2106,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2087,14 +2123,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2103,14 +2139,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2124,7 +2160,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2136,14 +2172,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2153,14 +2189,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2169,14 +2205,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2186,11 +2222,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2202,14 +2238,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2219,7 +2255,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2242,7 +2278,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2252,11 +2288,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2268,14 +2304,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2285,14 +2321,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2301,20 +2337,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2325,7 +2361,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2341,7 +2377,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2351,11 +2387,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2367,14 +2403,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2384,14 +2420,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2400,28 +2436,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2433,28 +2469,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2466,31 +2502,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2499,14 +2535,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2516,7 +2552,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2532,31 +2568,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2565,14 +2601,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2589,7 +2625,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2622,7 +2658,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2648,7 +2684,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2681,14 +2717,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2697,14 +2733,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2714,14 +2750,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2730,14 +2766,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2747,49 +2783,181 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2380.6999999999998</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>167</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>168</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>169</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>172</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>173</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>74</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>170</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>174</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>23</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>74</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>170</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>176</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>157</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>74</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>115</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>161</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>74</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>158</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2956.6999999999998</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>179</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>180</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>181</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3043,10 +3211,30 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -548,7 +548,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 4:20 PM</t>
+    <t>Tuesday, 7 October, 2025 4:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -386,6 +386,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -545,10 +554,16 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 4:22 PM</t>
+    <t>Tuesday, 7 October, 2025 4:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2311,7 +2326,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2328,7 +2343,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2344,7 +2359,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2354,11 +2369,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2370,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2394,7 +2409,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2410,7 +2425,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2443,13 +2458,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2476,21 +2491,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2502,14 +2517,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2519,14 +2534,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2535,31 +2550,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2575,21 +2590,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2601,28 +2616,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2651,14 +2666,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2667,14 +2682,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2684,14 +2699,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2700,14 +2715,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2717,14 +2732,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2757,7 +2772,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2773,7 +2788,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2783,14 +2798,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2799,14 +2814,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2816,11 +2831,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2832,14 +2847,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2849,14 +2864,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2865,14 +2880,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2882,11 +2897,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -2898,14 +2913,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2915,49 +2930,115 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>181</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>27</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>74</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>182</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>183</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>164</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>74</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>161</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q59" s="12">
+      <c t="s" r="Q61" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2956.6999999999998</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>179</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>180</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>181</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3061.6999999999998</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>184</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>185</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>186</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3231,10 +3312,20 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -200,6 +200,9 @@
     <t>DEVAROL-S 200000 I.U AMPOULE</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -332,9 +335,6 @@
     <t>NERCEFAXON 1 GM I.M. VIAL</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>29.00</t>
   </si>
   <si>
@@ -563,7 +563,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 4:51 PM</t>
+    <t>Tuesday, 7 October, 2025 4:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1633,7 +1633,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1643,11 +1643,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>42</v>
@@ -1659,14 +1659,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1676,11 +1676,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1692,14 +1692,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1709,11 +1709,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>46</v>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1738,15 +1738,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1775,11 +1775,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1808,11 +1808,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1837,15 +1837,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1857,14 +1857,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1874,11 +1874,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1907,11 +1907,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1923,14 +1923,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1973,14 +1973,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2006,11 +2006,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2035,15 +2035,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2121,14 +2121,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2194,7 +2194,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2227,7 +2227,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2260,7 +2260,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2497,7 +2497,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2534,11 +2534,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2590,13 +2590,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2662,7 +2662,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2695,7 +2695,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2728,7 +2728,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2761,7 +2761,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2772,7 +2772,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2794,7 +2794,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2827,7 +2827,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2860,7 +2860,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2893,7 +2893,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2926,7 +2926,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2959,7 +2959,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -2992,7 +2992,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>CONVENTIN 100MG 30 CAP.</t>
   </si>
   <si>
@@ -239,9 +251,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -407,9 +416,6 @@
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>136.50</t>
   </si>
   <si>
@@ -563,7 +569,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 4:57 PM</t>
+    <t>Tuesday, 7 October, 2025 5:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1534,7 +1540,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1544,14 +1550,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1560,14 +1566,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1577,14 +1583,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1593,14 +1599,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1617,7 +1623,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1650,7 +1656,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1683,7 +1689,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1716,7 +1722,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1732,13 +1738,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1749,7 +1755,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1765,24 +1771,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1798,7 +1804,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1815,7 +1821,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1831,13 +1837,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1848,7 +1854,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1864,13 +1870,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1881,7 +1887,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1897,7 +1903,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1907,11 +1913,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1923,14 +1929,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1940,14 +1946,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1956,14 +1962,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1973,14 +1979,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1989,7 +1995,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2006,14 +2012,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2029,13 +2035,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2062,24 +2068,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2088,14 +2094,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2105,11 +2111,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2121,14 +2127,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2138,14 +2144,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2161,7 +2167,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,14 +2177,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2187,14 +2193,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2211,7 +2217,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2227,7 +2233,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2244,7 +2250,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2260,7 +2266,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,11 +2276,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2286,14 +2292,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2303,7 +2309,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2326,7 +2332,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2343,7 +2349,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2359,7 +2365,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2376,7 +2382,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2392,7 +2398,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2402,11 +2408,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2418,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2435,14 +2441,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2451,14 +2457,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2468,11 +2474,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2484,28 +2490,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2517,28 +2523,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2567,14 +2573,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2590,24 +2596,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2616,28 +2622,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2649,28 +2655,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2682,31 +2688,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2715,31 +2721,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2755,24 +2761,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,7 +2787,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2794,18 +2800,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,31 +2820,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,28 +2853,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2887,24 +2893,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2920,17 +2926,17 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -2953,24 +2959,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2986,59 +2992,92 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3061.6999999999998</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>184</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>185</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>166</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>79</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>163</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3109.2199999999998</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
         <v>186</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>187</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>188</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3322,10 +3361,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -569,7 +569,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 5:23 PM</t>
+    <t>Tuesday, 7 October, 2025 5:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BROMAGAR ORAL DROPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -248,9 +260,6 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -569,7 +578,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 5:28 PM</t>
+    <t>Tuesday, 7 October, 2025 5:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1441,13 +1450,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1458,7 +1467,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1491,7 +1500,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1507,7 +1516,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1517,14 +1526,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1533,14 +1542,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1557,7 +1566,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1573,7 +1582,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1599,14 +1608,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1656,7 +1665,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1689,7 +1698,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1722,7 +1731,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1755,7 +1764,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1771,24 +1780,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1797,31 +1806,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1837,7 +1846,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1854,7 +1863,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1870,13 +1879,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1887,7 +1896,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1903,13 +1912,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1920,7 +1929,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1936,7 +1945,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1946,11 +1955,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1979,14 +1988,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1995,14 +2004,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2028,7 +2037,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2045,14 +2054,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>103</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2068,13 +2077,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2101,24 +2110,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2144,11 +2153,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2200,7 +2209,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2250,7 +2259,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2266,7 +2275,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2283,7 +2292,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2299,7 +2308,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,11 +2318,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2342,7 +2351,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2365,7 +2374,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2382,7 +2391,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2398,7 +2407,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2415,7 +2424,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2431,7 +2440,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2464,7 +2473,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2481,7 +2490,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2497,7 +2506,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2530,13 +2539,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2563,21 +2572,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,31 +2631,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2662,21 +2671,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2688,28 +2697,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2721,31 +2730,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,31 +2763,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,31 +2796,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2833,7 +2842,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2844,7 +2853,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2860,24 +2869,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2886,28 +2895,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2919,31 +2928,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2952,28 +2961,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -2985,31 +2994,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3018,66 +3027,99 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3109.2199999999998</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>186</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>187</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>188</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>169</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>42</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>166</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3186.2199999999998</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>189</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>190</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>191</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3366,10 +3408,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>EVANEOTRIM 120 EXT. F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1598.00</t>
+  </si>
+  <si>
+    <t>1598.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -521,6 +530,18 @@
     <t>15:0</t>
   </si>
   <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -563,6 +584,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>كريم ONE للبشره الحساسه</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -578,7 +608,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 5:31 PM</t>
+    <t>Tuesday, 7 October, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1813,21 +1843,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1839,31 +1869,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1879,7 +1909,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1896,7 +1926,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1912,13 +1942,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1929,7 +1959,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1945,13 +1975,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1962,7 +1992,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1978,7 +2008,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1988,11 +2018,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2004,14 +2034,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2021,14 +2051,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2037,14 +2067,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2054,14 +2084,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2070,7 +2100,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2087,14 +2117,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2110,13 +2140,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2143,24 +2173,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2169,14 +2199,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2186,11 +2216,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2202,14 +2232,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2219,14 +2249,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2242,7 +2272,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2252,14 +2282,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2268,14 +2298,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2292,7 +2322,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2325,7 +2355,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2341,7 +2371,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2351,11 +2381,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2367,14 +2397,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2384,7 +2414,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2407,7 +2437,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2424,7 +2454,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2440,7 +2470,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2457,7 +2487,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2473,7 +2503,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2506,7 +2536,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2523,7 +2553,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2539,7 +2569,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2572,13 +2602,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2605,21 +2635,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2631,14 +2661,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2648,14 +2678,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2664,31 +2694,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2704,21 +2734,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2730,28 +2760,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2763,14 +2793,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2780,14 +2810,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2796,14 +2826,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2813,14 +2843,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2829,14 +2859,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2846,14 +2876,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2869,7 +2899,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2879,14 +2909,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,14 +2925,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2919,7 +2949,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2935,7 +2965,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2945,14 +2975,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2961,14 +2991,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2978,14 +3008,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2994,14 +3024,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3011,14 +3041,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3027,14 +3057,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3044,14 +3074,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3060,14 +3090,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3077,49 +3107,148 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>194</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>168</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>42</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>124</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>196</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>27</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>42</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>197</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>198</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>172</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>42</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>169</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3186.2199999999998</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>189</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>190</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>191</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>4854.2200000000003</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>199</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>200</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>201</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3413,10 +3542,25 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -422,6 +422,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>SANTASEA 180 ML SYRUP</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>400.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -608,7 +617,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 5:36 PM</t>
+    <t>Tuesday, 7 October, 2025 5:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2503,7 +2512,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2520,7 +2529,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2536,7 +2545,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2569,7 +2578,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2586,7 +2595,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2602,7 +2611,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2635,13 +2644,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2668,21 +2677,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2694,14 +2703,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2727,31 +2736,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2767,21 +2776,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2793,28 +2802,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2843,14 +2852,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2876,14 +2885,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2909,11 +2918,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2949,7 +2958,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2982,7 +2991,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2998,7 +3007,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3008,14 +3017,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3024,14 +3033,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3041,11 +3050,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3057,14 +3066,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3074,14 +3083,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3130,7 +3139,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3156,14 +3165,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3173,14 +3182,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3206,49 +3215,82 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>201</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>175</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>42</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>172</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>4854.2200000000003</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>199</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>200</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>201</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>5254.2200000000003</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>202</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>203</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>204</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3557,10 +3599,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -173,10 +173,10 @@
     <t>COMPHOLEX MASSAGE CREAM 50 GM</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
   </si>
   <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
@@ -239,9 +239,6 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>13.0000</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -617,7 +611,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 5:42 PM</t>
+    <t>Tuesday, 7 October, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1796,11 +1790,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1812,14 +1806,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1829,11 +1823,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>50</v>
@@ -1845,7 +1839,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1862,11 +1856,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1878,7 +1872,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1899,7 +1893,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1911,7 +1905,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1928,11 +1922,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1944,7 +1938,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1961,11 +1955,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1977,7 +1971,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1994,11 +1988,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2010,7 +2004,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2027,11 +2021,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2043,7 +2037,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2060,11 +2054,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2076,14 +2070,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2109,7 +2103,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2126,14 +2120,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2142,7 +2136,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2159,11 +2153,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2175,7 +2169,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2192,11 +2186,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2208,7 +2202,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2229,7 +2223,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2241,7 +2235,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2274,7 +2268,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2291,11 +2285,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2307,14 +2301,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2324,11 +2318,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2340,7 +2334,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2357,11 +2351,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2373,7 +2367,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2390,11 +2384,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2406,14 +2400,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2423,11 +2417,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2439,7 +2433,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2456,11 +2450,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2472,7 +2466,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2489,11 +2483,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2505,7 +2499,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2522,11 +2516,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2538,7 +2532,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2555,11 +2549,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2571,7 +2565,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2588,11 +2582,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2604,7 +2598,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2621,11 +2615,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2637,7 +2631,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2654,11 +2648,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2670,7 +2664,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2687,11 +2681,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2703,14 +2697,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2720,11 +2714,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2736,14 +2730,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2753,11 +2747,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2769,7 +2763,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2786,11 +2780,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2802,14 +2796,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2819,11 +2813,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2835,14 +2829,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,11 +2846,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2868,14 +2862,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2885,11 +2879,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -2901,14 +2895,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2922,7 +2916,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2934,14 +2928,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2951,11 +2945,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2967,7 +2961,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2984,11 +2978,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>71</v>
@@ -3000,7 +2994,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3017,11 +3011,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3033,14 +3027,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3050,11 +3044,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3066,14 +3060,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3083,11 +3077,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3099,7 +3093,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3116,11 +3110,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>27</v>
@@ -3132,14 +3126,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,11 +3143,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3165,14 +3159,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,11 +3176,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3198,7 +3192,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3215,11 +3209,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3231,14 +3225,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3248,7 +3242,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3260,13 +3254,13 @@
     </row>
     <row r="68" ht="24.75" customHeight="1">
       <c r="P68" s="13">
-        <v>5254.2200000000003</v>
+        <v>5259.2200000000003</v>
       </c>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c t="s" r="A69" s="14">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3274,13 +3268,13 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c t="s" r="G69" s="15">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
       <c r="J69" s="16"/>
       <c t="s" r="K69" s="17">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -245,7 +245,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>9:2</t>
   </si>
   <si>
     <t>48.00</t>
@@ -296,6 +296,15 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>FORFLOZIN 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -350,6 +359,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
@@ -476,6 +497,18 @@
     <t>3:1</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -494,9 +527,6 @@
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>84.00</t>
   </si>
   <si>
@@ -527,6 +557,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -551,15 +590,9 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -575,12 +608,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>قصافات كبار لوكس</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -611,7 +647,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 5:53 PM</t>
+    <t>Tuesday, 7 October, 2025 6:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1582,7 +1618,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1681,7 +1717,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2011,7 +2047,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2028,7 +2064,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2044,7 +2080,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2054,11 +2090,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2070,14 +2106,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2087,14 +2123,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2103,14 +2139,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2120,14 +2156,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2136,7 +2172,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2153,14 +2189,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>107</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2176,13 +2212,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2209,24 +2245,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2235,14 +2271,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2252,11 +2288,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2268,14 +2304,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2285,14 +2321,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2301,14 +2337,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2318,11 +2354,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2358,7 +2394,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2374,7 +2410,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2384,11 +2420,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2400,14 +2436,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2417,14 +2453,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2433,14 +2469,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2450,11 +2486,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2466,14 +2502,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2483,14 +2519,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2499,14 +2535,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2516,14 +2552,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2532,14 +2568,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2549,14 +2585,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2565,14 +2601,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2582,14 +2618,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2598,14 +2634,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2615,14 +2651,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2631,14 +2667,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2648,14 +2684,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2664,28 +2700,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2697,14 +2733,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2714,11 +2750,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2730,31 +2766,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2763,28 +2799,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2796,14 +2832,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2813,11 +2849,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2829,31 +2865,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2869,7 +2905,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2879,14 +2915,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2895,28 +2931,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2968,7 +3004,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2978,14 +3014,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2994,7 +3030,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3011,14 +3047,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3027,14 +3063,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3044,11 +3080,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3060,14 +3096,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3077,11 +3113,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3093,7 +3129,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3110,14 +3146,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3126,14 +3162,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3143,14 +3179,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3166,7 +3202,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3176,14 +3212,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3192,14 +3228,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3209,11 +3245,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3225,14 +3261,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3242,49 +3278,214 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>202</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>23</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>42</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>197</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>204</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>163</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>42</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>205</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>207</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>179</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>42</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>129</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>209</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>27</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>42</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>210</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>211</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>186</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>42</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>180</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>5259.2200000000003</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>200</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>201</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>202</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c t="s" r="Q72" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>5482.1999999999998</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>212</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>213</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>214</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3598,10 +3799,35 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -125,202 +125,202 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>BROMAGAR ORAL DROPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>COMPHOLEX MASSAGE CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>CONVENTIN 100MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>204.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>EVANEOTRIM 120 EXT. F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1598.00</t>
+  </si>
+  <si>
+    <t>1598.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FORFLOZIN 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>26.7300</t>
-  </si>
-  <si>
-    <t>BROMAGAR ORAL DROPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>COMPHOLEX MASSAGE CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>CONVENTIN 100MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>204.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>EVANEOTRIM 120 EXT. F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1598.00</t>
-  </si>
-  <si>
-    <t>1598.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>46.0350</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FORFLOZIN 10MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>306.00</t>
-  </si>
-  <si>
-    <t>100.9800</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>173.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
   </si>
   <si>
     <t>KAPRON 500 MG 20 F.C.TABS.</t>
@@ -1486,7 +1486,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1496,14 +1496,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1585,7 +1585,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1595,11 +1595,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1628,11 +1628,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1644,14 +1644,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1661,14 +1661,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1694,11 +1694,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1727,14 +1727,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1743,14 +1743,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1760,11 +1760,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1776,14 +1776,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>46</v>
@@ -1809,14 +1809,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1826,11 +1826,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1842,14 +1842,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1859,14 +1859,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1892,11 +1892,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1925,11 +1925,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1958,11 +1958,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1991,11 +1991,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2024,11 +2024,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2057,11 +2057,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2073,14 +2073,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2090,11 +2090,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2139,14 +2139,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2156,11 +2156,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2354,11 +2354,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2377,7 +2377,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2443,7 +2443,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2476,7 +2476,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2509,7 +2509,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2542,7 +2542,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2674,7 +2674,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2740,7 +2740,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2816,11 +2816,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3153,7 +3153,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3455,7 +3455,7 @@
     </row>
     <row r="73" ht="24.75" customHeight="1">
       <c r="P73" s="13">
-        <v>5482.1999999999998</v>
+        <v>5508.9300000000003</v>
       </c>
       <c r="Q73" s="13"/>
     </row>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -266,6 +266,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEBURIC 80MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -335,6 +347,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LIMITLESS MAN MAX 30 TABS</t>
   </si>
   <si>
@@ -398,9 +419,6 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -446,6 +464,15 @@
     <t>400.0000</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -563,33 +590,36 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -647,7 +677,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 6:24 PM</t>
+    <t>Tuesday, 7 October, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1948,7 +1978,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1958,11 +1988,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1974,14 +2004,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1991,14 +2021,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2007,31 +2037,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2040,28 +2070,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2073,14 +2103,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2090,14 +2120,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2106,14 +2136,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2123,11 +2153,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2139,14 +2169,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2156,14 +2186,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2172,14 +2202,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2189,14 +2219,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2229,7 +2259,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2238,31 +2268,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2271,14 +2301,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2288,14 +2318,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2304,28 +2334,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2337,14 +2367,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2354,11 +2384,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2370,14 +2400,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2387,14 +2417,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2403,14 +2433,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2420,11 +2450,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2460,7 +2490,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2476,7 +2506,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2486,11 +2516,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2502,14 +2532,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2519,14 +2549,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2535,14 +2565,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2552,11 +2582,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2568,14 +2598,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2585,14 +2615,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2608,7 +2638,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2625,7 +2655,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2641,7 +2671,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2658,7 +2688,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2674,7 +2704,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2691,7 +2721,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2707,7 +2737,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2724,7 +2754,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2740,7 +2770,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2757,7 +2787,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2773,13 +2803,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2790,7 +2820,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2806,7 +2836,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2816,11 +2846,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2832,14 +2862,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2872,24 +2902,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2898,28 +2928,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2938,7 +2968,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2948,11 +2978,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2964,31 +2994,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2997,14 +3027,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3014,14 +3044,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3030,31 +3060,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3063,14 +3093,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3080,11 +3110,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3120,7 +3150,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,7 +3180,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>70</v>
@@ -3162,14 +3192,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3179,14 +3209,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3195,14 +3225,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3212,11 +3242,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3228,14 +3258,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3245,14 +3275,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3261,14 +3291,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3278,14 +3308,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3294,14 +3324,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3311,14 +3341,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3327,14 +3357,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3344,11 +3374,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3360,14 +3390,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3377,14 +3407,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3393,14 +3423,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3410,14 +3440,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3426,14 +3456,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3443,49 +3473,148 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>217</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>188</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>42</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>87</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>219</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>27</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>42</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>220</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>221</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>195</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>42</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>189</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q72" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>5508.9300000000003</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>212</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>213</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>214</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>5542.6099999999997</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>222</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>223</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>224</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3824,10 +3953,25 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -623,7 +623,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>27.0000</t>
   </si>
   <si>
     <t>سلاكه اسنان بلاستك</t>
@@ -3315,7 +3315,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3584,7 +3584,7 @@
     </row>
     <row r="76" ht="25.5" customHeight="1">
       <c r="P76" s="13">
-        <v>5542.6099999999997</v>
+        <v>5557.6099999999997</v>
       </c>
       <c r="Q76" s="13"/>
     </row>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -677,7 +677,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 6:36 PM</t>
+    <t>Tuesday, 7 October, 2025 6:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -89,12 +89,21 @@
     <t>152.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
@@ -122,6 +131,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -152,12 +170,18 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -239,16 +263,25 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DEXATOBRIN EYE SUSP. DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:2</t>
+    <t>9:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
+    <t>0:3</t>
   </si>
   <si>
     <t>EVANEOTRIM 120 EXT. F.C. TABS.</t>
@@ -338,9 +371,6 @@
     <t>KAPRON 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
     <t>-55.0000</t>
   </si>
   <si>
@@ -407,9 +437,6 @@
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>265.00</t>
   </si>
   <si>
@@ -428,9 +455,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -677,7 +701,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 6:39 PM</t>
+    <t>Tuesday, 7 October, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1450,7 +1474,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1460,11 +1484,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1476,14 +1500,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1500,7 +1524,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1516,7 +1540,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1533,7 +1557,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1542,28 +1566,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1575,14 +1599,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1592,14 +1616,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1608,31 +1632,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1641,14 +1665,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1658,14 +1682,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1674,14 +1698,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1691,14 +1715,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1707,14 +1731,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1724,11 +1748,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1740,14 +1764,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1757,14 +1781,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1773,14 +1797,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1790,14 +1814,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1806,14 +1830,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1823,14 +1847,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1839,14 +1863,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1856,14 +1880,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1872,14 +1896,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1889,14 +1913,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1905,14 +1929,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1922,14 +1946,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1938,31 +1962,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1971,14 +1995,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1988,14 +2012,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2004,14 +2028,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2021,14 +2045,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2037,7 +2061,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2054,11 +2078,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2070,31 +2094,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2103,14 +2127,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2120,11 +2144,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2136,14 +2160,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2153,14 +2177,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2169,14 +2193,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2186,11 +2210,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2202,28 +2226,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2235,14 +2259,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2252,14 +2276,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2275,7 +2299,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2285,14 +2309,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2318,11 +2342,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2334,31 +2358,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2367,14 +2391,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2384,14 +2408,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2400,14 +2424,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2417,14 +2441,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2433,7 +2457,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2450,14 +2474,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2473,13 +2497,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2490,7 +2514,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2506,7 +2530,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2516,11 +2540,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2532,14 +2556,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2549,7 +2573,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2572,7 +2596,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2582,11 +2606,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2598,14 +2622,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2615,14 +2639,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2631,14 +2655,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2648,11 +2672,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2664,14 +2688,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,11 +2705,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2697,14 +2721,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2714,14 +2738,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2730,14 +2754,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2747,14 +2771,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2763,14 +2787,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2780,11 +2804,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2796,14 +2820,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,14 +2837,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2829,14 +2853,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,11 +2870,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2862,14 +2886,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2879,14 +2903,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2895,31 +2919,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2928,14 +2952,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2945,14 +2969,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2961,14 +2985,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2978,11 +3002,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2994,14 +3018,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3011,14 +3035,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3027,28 +3051,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3060,14 +3084,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3077,11 +3101,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3093,28 +3117,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3126,31 +3150,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3159,31 +3183,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3192,24 +3216,24 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3225,28 +3249,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3258,31 +3282,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3291,7 +3315,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3304,18 +3328,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>172</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3324,28 +3348,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3357,28 +3381,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3390,31 +3414,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3423,7 +3447,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3436,18 +3460,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3456,20 +3480,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3496,24 +3520,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3529,21 +3553,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3555,66 +3579,198 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>222</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>180</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>48</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>223</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>225</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>196</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>48</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>98</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>227</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>27</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>48</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>228</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>229</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>203</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>48</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>197</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>5557.6099999999997</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>222</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>223</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>224</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q79" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>5717.1599999999999</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>230</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>231</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>232</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3968,10 +4124,30 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -701,7 +701,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 6:54 PM</t>
+    <t>Tuesday, 7 October, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -245,117 +245,129 @@
     <t>DEVAROL-S 200000 I.U AMPOULE</t>
   </si>
   <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>272.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXATOBRIN EYE SUSP. DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>EVANEOTRIM 120 EXT. F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1598.00</t>
+  </si>
+  <si>
+    <t>1598.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FORFLOZIN 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>204.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXATOBRIN EYE SUSP. DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>EVANEOTRIM 120 EXT. F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1598.00</t>
-  </si>
-  <si>
-    <t>1598.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>46.0350</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FORFLOZIN 10MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>306.00</t>
-  </si>
-  <si>
-    <t>100.9800</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
     <t>173.00</t>
   </si>
   <si>
     <t>173.0000</t>
   </si>
   <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -455,6 +467,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -653,9 +674,6 @@
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -701,7 +719,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:01 PM</t>
+    <t>Tuesday, 7 October, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1936,7 +1954,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1946,14 +1964,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>52</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2299,7 +2317,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2309,11 +2327,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2325,14 +2343,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2342,14 +2360,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2358,14 +2376,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2375,14 +2393,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2490,28 +2508,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2523,31 +2541,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2596,7 +2614,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2606,14 +2624,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2622,14 +2640,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2639,14 +2657,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2655,14 +2673,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2672,14 +2690,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2688,14 +2706,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2721,14 +2739,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2738,14 +2756,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2771,11 +2789,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2787,31 +2805,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2837,14 +2855,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2853,14 +2871,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2870,14 +2888,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2903,14 +2921,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2952,7 +2970,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2985,14 +3003,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3002,14 +3020,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3035,14 +3053,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3051,28 +3069,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3101,11 +3119,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3117,28 +3135,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3150,14 +3168,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3167,14 +3185,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3183,28 +3201,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3216,14 +3234,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3233,14 +3251,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3249,14 +3267,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3289,24 +3307,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3315,14 +3333,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3339,7 +3357,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3365,14 +3383,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3381,14 +3399,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3398,14 +3416,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3414,14 +3432,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3431,14 +3449,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3454,7 +3472,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>180</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3480,14 +3498,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3497,14 +3515,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3513,14 +3531,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3563,11 +3581,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3579,14 +3597,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3629,11 +3647,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3662,11 +3680,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3695,11 +3713,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3711,7 +3729,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3728,49 +3746,115 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>233</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>27</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>48</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>234</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>235</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>210</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>48</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>204</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q79" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>5717.1599999999999</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>230</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>231</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>232</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>5931.7700000000004</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>236</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>237</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>238</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4144,10 +4228,20 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -719,7 +719,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:06 PM</t>
+    <t>Tuesday, 7 October, 2025 7:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -140,6 +152,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>BETASERC 24MG 40 TABS</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -155,15 +176,21 @@
     <t>BROMAGAR ORAL DROPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>77.00</t>
   </si>
   <si>
     <t>77.0000</t>
   </si>
   <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -173,6 +200,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>CINNARIZINE 25MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -293,6 +329,9 @@
     <t>1598.0000</t>
   </si>
   <si>
+    <t>EZAMOL-C 20 TAB.</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -305,9 +344,6 @@
     <t>7:4</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>3.8400</t>
   </si>
   <si>
@@ -491,6 +527,12 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>RANCIF 500MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>REVI 2 CREAM 50 GM</t>
   </si>
   <si>
@@ -545,6 +587,15 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>TOBRADEX EYE OINT. 3.5 GM</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>42.5000</t>
+  </si>
+  <si>
     <t>TRIOCOBAVIT 30 CAPS.</t>
   </si>
   <si>
@@ -719,7 +770,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:14 PM</t>
+    <t>Tuesday, 7 October, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1492,21 +1543,21 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1518,14 +1569,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1558,7 +1609,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1568,14 +1619,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1584,14 +1635,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1601,11 +1652,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1617,14 +1668,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1634,14 +1685,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1657,24 +1708,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1683,14 +1734,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1700,14 +1751,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1723,13 +1774,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1740,7 +1791,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1756,7 +1807,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1789,7 +1840,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1799,14 +1850,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1822,7 +1873,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1832,14 +1883,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1848,14 +1899,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1865,11 +1916,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1881,14 +1932,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1898,14 +1949,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1914,14 +1965,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1931,14 +1982,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1947,14 +1998,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1964,14 +2015,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1980,14 +2031,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1997,11 +2048,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2013,14 +2064,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2030,14 +2081,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2046,14 +2097,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2063,14 +2114,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2079,14 +2130,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2096,14 +2147,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2112,31 +2163,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2152,7 +2203,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2162,14 +2213,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2178,14 +2229,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2199,10 +2250,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2251,21 +2302,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2277,31 +2328,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2310,14 +2361,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2327,14 +2378,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2343,14 +2394,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2360,11 +2411,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2376,14 +2427,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2393,11 +2444,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2409,28 +2460,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2442,14 +2493,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2459,14 +2510,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2475,14 +2526,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2492,14 +2543,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2508,14 +2559,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2525,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2541,28 +2592,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2574,14 +2625,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2591,11 +2642,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2607,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2624,14 +2675,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2640,14 +2691,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2657,11 +2708,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2673,14 +2724,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,14 +2741,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2706,31 +2757,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2739,14 +2790,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2756,14 +2807,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2772,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2793,10 +2844,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2805,31 +2856,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2838,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2855,14 +2906,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2878,7 +2929,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2911,7 +2962,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2921,11 +2972,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2937,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2954,14 +3005,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2970,31 +3021,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3003,14 +3054,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3020,11 +3071,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3036,14 +3087,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3053,11 +3104,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3069,14 +3120,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,11 +3137,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3102,14 +3153,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3119,11 +3170,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3135,7 +3186,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3148,15 +3199,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3168,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3185,14 +3236,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3201,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,14 +3269,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3285,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,11 +3302,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3267,28 +3318,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3300,14 +3351,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3317,11 +3368,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3333,28 +3384,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3366,31 +3417,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3399,31 +3450,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3432,28 +3483,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3465,31 +3516,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,31 +3549,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3531,31 +3582,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3564,28 +3615,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3597,31 +3648,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3630,31 +3681,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3670,24 +3721,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3703,21 +3754,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3729,31 +3780,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3762,31 +3813,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3795,66 +3846,297 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>240</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>241</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>31</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>14</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>242</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>241</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>31</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>238</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>243</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>23</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>31</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>238</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>245</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>204</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>31</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>246</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>248</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>220</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>31</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>64</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>250</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>27</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>31</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>251</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>252</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>227</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>31</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>221</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>5931.7700000000004</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>236</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>237</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>238</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q88" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>6334.2700000000004</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>253</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>254</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>255</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4238,10 +4520,45 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -113,6 +113,30 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>AMAGLUST 2/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -170,9 +194,6 @@
     <t>53.4600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>BROMAGAR ORAL DROPS</t>
   </si>
   <si>
@@ -215,7 +236,7 @@
     <t>110.00</t>
   </si>
   <si>
-    <t>55.0000</t>
+    <t>110.0000</t>
   </si>
   <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
@@ -410,9 +431,6 @@
     <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>26.7300</t>
   </si>
   <si>
@@ -497,6 +515,9 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -632,6 +653,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 1% EMULGEL 50 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -713,7 +743,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -770,7 +800,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:18 PM</t>
+    <t>Tuesday, 7 October, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1576,7 +1606,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1586,11 +1616,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1602,14 +1632,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1619,11 +1649,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1635,14 +1665,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1652,14 +1682,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1668,14 +1698,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1685,14 +1715,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1701,14 +1731,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1718,14 +1748,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1734,14 +1764,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1751,14 +1781,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1767,31 +1797,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1800,14 +1830,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1817,14 +1847,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1833,31 +1863,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1866,14 +1896,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1883,11 +1913,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1899,14 +1929,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1916,14 +1946,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1932,14 +1962,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1949,11 +1979,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1965,7 +1995,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1982,11 +2012,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1998,14 +2028,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2022,7 +2052,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2038,7 +2068,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2055,7 +2085,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2071,7 +2101,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2081,14 +2111,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2097,14 +2127,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2137,7 +2167,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2154,7 +2184,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2163,14 +2193,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2180,7 +2210,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2203,7 +2233,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2220,7 +2250,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2229,14 +2259,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2246,14 +2276,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2269,7 +2299,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2302,7 +2332,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2312,14 +2342,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2328,28 +2358,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2361,14 +2391,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2378,11 +2408,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2394,31 +2424,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2427,14 +2457,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2444,14 +2474,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2460,7 +2490,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2473,15 +2503,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2493,14 +2523,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2510,14 +2540,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2526,20 +2556,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2550,7 +2580,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2566,7 +2596,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2599,7 +2629,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2609,11 +2639,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2625,14 +2655,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2642,11 +2672,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2658,7 +2688,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2675,14 +2705,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2691,14 +2721,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2708,7 +2738,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2741,14 +2771,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>143</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2764,24 +2794,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2797,7 +2827,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2807,14 +2837,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2823,20 +2853,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2863,7 +2893,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2873,11 +2903,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2889,14 +2919,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2906,14 +2936,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2922,14 +2952,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2939,11 +2969,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2962,7 +2992,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2972,14 +3002,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2988,14 +3018,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,11 +3035,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3021,28 +3051,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3054,14 +3084,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3071,14 +3101,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3094,7 +3124,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3108,7 +3138,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3120,24 +3150,24 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3160,7 +3190,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3170,14 +3200,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3186,14 +3216,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3203,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3219,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,14 +3266,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3252,14 +3282,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,14 +3299,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3285,14 +3315,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3302,14 +3332,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,14 +3348,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,14 +3365,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3351,7 +3381,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3368,14 +3398,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3384,14 +3414,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,14 +3431,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3417,28 +3447,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3450,14 +3480,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3467,11 +3497,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3483,14 +3513,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,11 +3530,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3516,31 +3546,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3549,28 +3579,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3582,14 +3612,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,11 +3629,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3615,28 +3645,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3648,31 +3678,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3681,14 +3711,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3698,14 +3728,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,28 +3744,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3747,14 +3777,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3764,11 +3794,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3780,14 +3810,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3797,14 +3827,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3813,7 +3843,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3830,14 +3860,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>204</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3846,14 +3876,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3863,11 +3893,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3879,14 +3909,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3896,11 +3926,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3919,7 +3949,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3929,14 +3959,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>239</v>
-      </c>
-      <c t="s" r="Q83" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3945,7 +3975,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3962,14 +3992,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3978,14 +4008,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3995,11 +4025,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4011,14 +4041,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4028,14 +4058,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4044,14 +4074,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4061,11 +4091,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4077,14 +4107,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4094,49 +4124,181 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>255</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>211</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>31</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>256</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>258</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>230</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>31</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>71</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>260</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>27</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>31</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>261</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>262</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>237</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>31</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>231</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q88" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>6334.2700000000004</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>253</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>254</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>255</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>6549.6199999999999</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>263</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>264</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>265</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4555,10 +4717,30 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>COMPHOLEX MASSAGE CREAM 50 GM</t>
   </si>
   <si>
@@ -314,10 +323,13 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>13.0000</t>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DEXATOBRIN EYE SUSP. DROPS 5 ML</t>
@@ -338,7 +350,13 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>0:3</t>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
   </si>
   <si>
     <t>EVANEOTRIM 120 EXT. F.C. TABS.</t>
@@ -476,6 +494,12 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
@@ -500,6 +524,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>184.0000</t>
+  </si>
+  <si>
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -743,13 +776,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سلاكه اسنان بلاستك</t>
@@ -800,7 +833,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:29 PM</t>
+    <t>Tuesday, 7 October, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2068,7 +2101,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2085,7 +2118,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2101,7 +2134,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2111,14 +2144,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2127,14 +2160,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2151,7 +2184,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2167,7 +2200,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2184,7 +2217,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2200,7 +2233,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2210,14 +2243,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2226,14 +2259,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2250,7 +2283,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2259,14 +2292,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2276,14 +2309,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2299,7 +2332,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2309,14 +2342,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2325,14 +2358,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2346,10 +2379,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2365,7 +2398,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2375,14 +2408,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2398,21 +2431,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2424,28 +2457,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2457,14 +2490,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2478,7 +2511,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2490,31 +2523,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2530,7 +2563,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2540,14 +2573,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2569,7 +2602,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2596,7 +2629,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2613,7 +2646,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2629,24 +2662,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2655,14 +2688,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2672,11 +2705,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2688,14 +2721,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2705,11 +2738,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2721,14 +2754,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2738,11 +2771,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2754,7 +2787,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2771,14 +2804,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2787,14 +2820,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2804,7 +2837,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2837,14 +2870,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>149</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2860,24 +2893,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2893,7 +2926,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2903,14 +2936,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2919,20 +2952,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2959,7 +2992,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2969,11 +3002,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2985,14 +3018,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3002,14 +3035,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3025,7 +3058,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3035,14 +3068,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3051,14 +3084,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3068,14 +3101,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3091,7 +3124,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3101,14 +3134,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3117,14 +3150,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3134,14 +3167,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3150,31 +3183,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3183,14 +3216,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3200,14 +3233,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3216,14 +3249,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3233,14 +3266,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3249,14 +3282,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3266,14 +3299,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3282,28 +3315,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3315,14 +3348,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3332,14 +3365,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3355,7 +3388,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3372,7 +3405,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3388,7 +3421,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3398,14 +3431,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3414,14 +3447,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3431,14 +3464,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3447,14 +3480,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3464,11 +3497,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3480,14 +3513,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3497,14 +3530,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3513,14 +3546,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3530,14 +3563,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3546,31 +3579,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3579,14 +3612,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3596,11 +3629,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3619,7 +3652,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,11 +3662,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3645,14 +3678,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3662,11 +3695,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3678,31 +3711,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3718,21 +3751,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3744,14 +3777,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3784,21 +3817,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3810,31 +3843,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3843,14 +3876,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3860,14 +3893,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3876,28 +3909,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3909,14 +3942,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3926,11 +3959,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3942,14 +3975,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3959,14 +3992,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>239</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3975,7 +4008,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3992,14 +4025,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>211</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4015,7 +4048,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4025,11 +4058,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4041,14 +4074,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4058,11 +4091,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4074,14 +4107,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4091,14 +4124,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4107,7 +4140,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4124,14 +4157,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4140,14 +4173,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4157,11 +4190,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4173,14 +4206,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4190,14 +4223,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4206,14 +4239,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4223,11 +4256,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4239,14 +4272,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4256,49 +4289,181 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>266</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>222</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>31</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>267</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>269</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>241</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>31</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>71</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>271</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>27</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>31</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>272</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>273</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>248</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>31</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>242</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>6549.6199999999999</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>263</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>264</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>265</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q96" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>6878.6199999999999</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>274</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>275</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>276</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4737,10 +4902,30 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -833,7 +833,10 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:31 PM</t>
+    <t>معجون كلوز اب الصغير</t>
+  </si>
+  <si>
+    <t>Tuesday, 7 October, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4432,38 +4435,71 @@
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>6878.6199999999999</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>274</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>27</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>31</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>242</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>6898.6199999999999</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
         <v>275</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
         <v>276</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>277</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4922,10 +4958,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -836,7 +836,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:32 PM</t>
+    <t>Tuesday, 7 October, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>ALBOTHYL 1.8% VAG. JEL 40 GM</t>
   </si>
   <si>
@@ -254,7 +266,7 @@
     <t>32.00</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>32.0000</t>
   </si>
   <si>
     <t>COMPHOLEX MASSAGE CREAM 50 GM</t>
@@ -272,9 +284,6 @@
     <t>1:3</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>47.5200</t>
   </si>
   <si>
@@ -308,6 +317,9 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
+  </si>
+  <si>
     <t>DEVAROL-S 200000 I.U AMPOULE</t>
   </si>
   <si>
@@ -329,9 +341,6 @@
     <t>39.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DEXATOBRIN EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
@@ -356,7 +365,7 @@
     <t>82.00</t>
   </si>
   <si>
-    <t>41.0000</t>
+    <t>82.0000</t>
   </si>
   <si>
     <t>EVANEOTRIM 120 EXT. F.C. TABS.</t>
@@ -524,6 +533,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>NORMIFRIN (OXYMETAZLINE-MUP) 0.5MG/ML N</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
   </si>
   <si>
@@ -680,12 +698,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 1% EMULGEL 50 GM</t>
   </si>
   <si>
@@ -710,6 +722,12 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>ZIAWET SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -776,6 +794,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -821,9 +842,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
@@ -836,7 +854,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:40 PM</t>
+    <t>Tuesday, 7 October, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1510,7 +1528,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1520,14 +1538,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1536,14 +1554,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1553,14 +1571,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1593,7 +1611,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1609,13 +1627,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1642,13 +1660,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1708,7 +1726,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1718,11 +1736,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1734,14 +1752,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1774,7 +1792,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1784,14 +1802,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1800,14 +1818,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1817,14 +1835,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1833,14 +1851,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1850,14 +1868,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1866,14 +1884,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1883,14 +1901,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1899,31 +1917,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1932,31 +1950,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1965,14 +1983,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1982,14 +2000,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1998,14 +2016,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2015,14 +2033,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2031,14 +2049,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2048,14 +2066,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2064,14 +2082,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2081,14 +2099,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2097,14 +2115,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2114,11 +2132,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2147,14 +2165,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2163,14 +2181,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2187,7 +2205,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2203,7 +2221,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2213,14 +2231,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2236,7 +2254,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2253,7 +2271,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2269,7 +2287,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2279,14 +2297,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2319,7 +2337,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2328,31 +2346,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2378,14 +2396,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2394,14 +2412,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2411,14 +2429,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2427,31 +2445,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2460,14 +2478,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2477,14 +2495,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2493,31 +2511,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2526,31 +2544,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2566,7 +2584,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2576,11 +2594,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2592,31 +2610,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2625,14 +2643,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2642,14 +2660,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2658,7 +2676,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2671,15 +2689,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2691,14 +2709,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2708,14 +2726,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2724,31 +2742,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2757,14 +2775,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2774,11 +2792,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2790,14 +2808,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2807,14 +2825,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2823,7 +2841,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2840,7 +2858,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2863,7 +2881,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2873,14 +2891,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>149</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2889,14 +2907,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2906,11 +2924,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2922,14 +2940,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2939,14 +2957,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2955,31 +2973,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2988,14 +3006,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3005,14 +3023,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3021,31 +3039,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3054,14 +3072,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3071,14 +3089,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3087,14 +3105,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3104,14 +3122,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3137,14 +3155,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3186,14 +3204,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3203,14 +3221,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3219,31 +3237,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3269,14 +3287,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3292,7 +3310,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3306,7 +3324,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3318,31 +3336,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3358,7 +3376,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3368,14 +3386,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3384,14 +3402,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3401,11 +3419,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3417,31 +3435,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3450,14 +3468,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3467,14 +3485,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3483,14 +3501,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,14 +3518,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3516,14 +3534,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3533,14 +3551,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3549,14 +3567,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3566,14 +3584,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3582,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3599,14 +3617,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3615,14 +3633,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3648,14 +3666,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3665,14 +3683,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3681,14 +3699,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3698,14 +3716,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3714,31 +3732,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3747,14 +3765,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3764,14 +3782,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3780,14 +3798,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3797,14 +3815,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3813,7 +3831,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3826,18 +3844,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3846,14 +3864,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3863,14 +3881,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3879,31 +3897,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3929,14 +3947,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3945,31 +3963,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3978,31 +3996,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4011,31 +4029,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>138</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4044,31 +4062,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4077,31 +4095,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4110,31 +4128,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>222</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,31 +4161,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>257</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4176,31 +4194,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4209,31 +4227,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4242,31 +4260,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4275,31 +4293,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4308,31 +4326,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4341,31 +4359,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4374,31 +4392,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4407,31 +4425,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4440,66 +4458,198 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>276</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>247</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>35</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>75</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>277</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>31</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>35</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>278</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>279</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>254</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>35</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>248</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>6898.6199999999999</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>275</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>276</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>277</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c t="s" r="Q100" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>280</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>31</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>35</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>248</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>7136.6199999999999</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>281</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>282</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>283</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4963,10 +5113,30 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -308,13 +308,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
@@ -353,12 +353,15 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:1</t>
+    <t>8:3</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
@@ -575,6 +578,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -794,7 +806,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -854,7 +866,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:46 PM</t>
+    <t>Tuesday, 7 October, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2337,7 +2349,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2499,10 +2511,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2511,7 +2523,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2528,11 +2540,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2544,7 +2556,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2561,11 +2573,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2577,7 +2589,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2610,7 +2622,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2631,7 +2643,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2664,7 +2676,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2676,7 +2688,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2693,11 +2705,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2709,7 +2721,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2726,11 +2738,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2742,7 +2754,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2759,11 +2771,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2775,7 +2787,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2792,11 +2804,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2825,11 +2837,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2841,7 +2853,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2858,11 +2870,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2874,7 +2886,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2907,7 +2919,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2928,7 +2940,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2940,7 +2952,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2961,10 +2973,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2973,14 +2985,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2994,7 +3006,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3006,7 +3018,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3023,11 +3035,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3039,7 +3051,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3056,11 +3068,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3072,7 +3084,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3093,7 +3105,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3105,7 +3117,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3122,7 +3134,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3138,14 +3150,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3155,11 +3167,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3171,7 +3183,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3221,11 +3233,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>31</v>
@@ -3237,7 +3249,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3254,11 +3266,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3270,7 +3282,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3287,11 +3299,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3303,7 +3315,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3320,11 +3332,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3336,14 +3348,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3357,7 +3369,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3369,7 +3381,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3390,7 +3402,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3419,7 +3431,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3435,31 +3447,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3468,31 +3480,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3518,11 +3530,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3534,14 +3546,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3551,14 +3563,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3567,7 +3579,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3584,11 +3596,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3600,7 +3612,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3617,11 +3629,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,14 +3662,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3666,14 +3678,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3683,14 +3695,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3716,11 +3728,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3749,14 +3761,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,11 +3794,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3798,14 +3810,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3815,11 +3827,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3831,28 +3843,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3864,28 +3876,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3897,14 +3909,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3914,11 +3926,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3930,14 +3942,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3947,11 +3959,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3963,14 +3975,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3980,14 +3992,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3996,31 +4008,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4029,28 +4041,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4062,14 +4074,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4079,11 +4091,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4095,20 +4107,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4152,7 +4164,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4168,7 +4180,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4178,14 +4190,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4194,14 +4206,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4211,14 +4223,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4227,14 +4239,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4244,11 +4256,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4267,7 +4279,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4277,14 +4289,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>261</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4293,7 +4305,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4310,14 +4322,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4326,14 +4338,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4343,14 +4355,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4359,14 +4371,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4376,11 +4388,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4392,14 +4404,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4409,11 +4421,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4425,14 +4437,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4442,14 +4454,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4458,14 +4470,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4475,14 +4487,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4491,14 +4503,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4508,14 +4520,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4524,14 +4536,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4541,14 +4553,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4557,14 +4569,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4574,11 +4586,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4590,14 +4602,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4607,7 +4619,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4618,38 +4630,71 @@
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>7136.6199999999999</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>281</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>282</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>283</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>284</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>31</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>35</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>252</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>7204.3400000000001</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>285</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>286</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>287</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5133,10 +5178,15 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>77.0000</t>
   </si>
   <si>
+    <t>CALMARE PLUS 130 ML NASAL SPRAY</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>CERVITAM 20 CAPS.</t>
   </si>
   <si>
@@ -491,6 +500,15 @@
     <t>240.0000</t>
   </si>
   <si>
+    <t>LOPRECOUGH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>LOTERANOL 0.5% EYE DROPS</t>
   </si>
   <si>
@@ -644,6 +662,9 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -689,6 +710,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>UNIZITHRIN 200MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>62.50</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">VENTAMOR ROLL ON </t>
   </si>
   <si>
@@ -725,6 +755,18 @@
     <t>7:3</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8184:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>XANPRAZAN 20 MG TAB</t>
   </si>
   <si>
@@ -794,18 +836,9 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>13:0</t>
   </si>
   <si>
@@ -866,7 +899,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:49 PM</t>
+    <t>Tuesday, 7 October, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2002,7 +2035,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2019,7 +2052,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2035,7 +2068,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2045,14 +2078,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2068,7 +2101,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2078,14 +2111,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2101,7 +2134,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2118,7 +2151,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2134,7 +2167,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2151,7 +2184,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2167,7 +2200,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2184,7 +2217,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2200,7 +2233,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2233,7 +2266,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2243,14 +2276,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2266,7 +2299,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2276,14 +2309,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2299,7 +2332,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2316,7 +2349,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2332,7 +2365,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2342,11 +2375,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>39</v>
@@ -2358,31 +2391,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2391,31 +2424,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2424,14 +2457,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2441,14 +2474,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2464,7 +2497,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2474,14 +2507,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2497,7 +2530,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2507,14 +2540,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2523,20 +2556,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2547,7 +2580,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2563,13 +2596,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2596,7 +2629,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2606,14 +2639,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2622,31 +2655,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2655,31 +2688,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2695,7 +2728,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2705,7 +2738,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2728,7 +2761,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2745,7 +2778,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2761,13 +2794,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2778,7 +2811,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2794,13 +2827,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2827,7 +2860,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2837,14 +2870,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2853,14 +2886,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2877,7 +2910,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2893,7 +2926,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2903,14 +2936,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2919,14 +2952,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2936,14 +2969,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2952,14 +2985,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2969,14 +3002,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2992,7 +3025,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3002,14 +3035,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>156</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3025,7 +3058,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3035,14 +3068,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3058,13 +3091,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3091,7 +3124,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3101,14 +3134,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3117,28 +3150,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3150,14 +3183,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3167,14 +3200,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3190,7 +3223,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3200,14 +3233,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3216,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3233,14 +3266,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3249,31 +3282,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3289,7 +3322,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3306,7 +3339,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3322,13 +3355,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3339,7 +3372,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3355,7 +3388,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3365,14 +3398,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3381,14 +3414,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3398,14 +3431,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3414,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3431,14 +3464,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3447,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3464,14 +3497,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3480,31 +3513,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3520,7 +3553,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3530,11 +3563,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3546,31 +3579,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3579,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3596,14 +3629,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3612,14 +3645,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3629,14 +3662,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3645,7 +3678,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3662,7 +3695,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3685,7 +3718,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3702,7 +3735,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3718,7 +3751,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3735,7 +3768,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3751,7 +3784,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3768,7 +3801,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3784,7 +3817,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3794,11 +3827,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3810,7 +3843,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3827,14 +3860,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3843,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,14 +3893,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3876,28 +3909,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3909,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,11 +3959,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3942,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3959,11 +3992,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3982,7 +4015,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4015,24 +4048,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4041,28 +4074,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4081,7 +4114,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4091,11 +4124,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4114,7 +4147,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4153,18 +4186,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4173,28 +4206,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>31</v>
@@ -4206,14 +4239,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4223,14 +4256,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4239,28 +4272,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4272,28 +4305,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4305,14 +4338,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4322,14 +4355,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>265</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4338,14 +4371,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4355,14 +4388,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>268</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4371,14 +4404,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4388,14 +4421,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4404,14 +4437,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4425,7 +4458,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4437,14 +4470,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4454,11 +4487,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4487,14 +4520,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>276</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4510,7 +4543,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4520,14 +4553,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>279</v>
-      </c>
-      <c t="s" r="Q98" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4543,7 +4576,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>251</v>
+        <v>109</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4553,14 +4586,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4569,14 +4602,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4586,11 +4619,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4602,14 +4635,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4619,11 +4652,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4635,14 +4668,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4652,49 +4685,214 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>288</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>242</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>35</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>289</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>291</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>265</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>35</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>78</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>292</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>31</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>35</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>293</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>294</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>272</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>35</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>266</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q102" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>7204.3400000000001</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>285</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>286</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>287</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c t="s" r="Q106" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>295</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>31</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>35</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>266</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>7515.8400000000001</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>296</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>297</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>298</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5183,10 +5381,35 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -899,7 +899,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:51 PM</t>
+    <t>Tuesday, 7 October, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -899,7 +899,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:57 PM</t>
+    <t>Tuesday, 7 October, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>COVALMET 50\1000MG TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -635,6 +644,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>REVI 2 CREAM 50 GM</t>
   </si>
   <si>
@@ -845,9 +863,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
     <t>14:0</t>
   </si>
   <si>
@@ -899,7 +914,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 7:58 PM</t>
+    <t>Tuesday, 7 October, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2365,13 +2380,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2382,7 +2397,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2398,7 +2413,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2408,11 +2423,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>39</v>
@@ -2424,31 +2439,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2457,31 +2472,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2490,14 +2505,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2507,14 +2522,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2530,7 +2545,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2540,14 +2555,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2563,7 +2578,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2573,14 +2588,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2589,20 +2604,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2613,7 +2628,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2629,13 +2644,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2662,7 +2677,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,14 +2687,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2688,31 +2703,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2721,31 +2736,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2761,7 +2776,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2771,7 +2786,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2794,7 +2809,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2811,7 +2826,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2827,13 +2842,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2844,7 +2859,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2860,13 +2875,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2893,7 +2908,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2903,14 +2918,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2919,14 +2934,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2943,7 +2958,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2959,7 +2974,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2969,14 +2984,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2985,14 +3000,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3002,14 +3017,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3018,14 +3033,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3035,14 +3050,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3058,7 +3073,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3068,14 +3083,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>159</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3091,7 +3106,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3101,14 +3116,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3124,7 +3139,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3163,7 +3178,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3190,24 +3205,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3216,14 +3231,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3233,14 +3248,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3249,14 +3264,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3270,7 +3285,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3282,14 +3297,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3299,14 +3314,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3315,14 +3330,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3332,14 +3347,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3355,13 +3370,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3372,7 +3387,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3388,13 +3403,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3405,7 +3420,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3421,7 +3436,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3438,7 +3453,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3454,7 +3469,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3464,14 +3479,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3480,14 +3495,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3501,7 +3516,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3513,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,14 +3545,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3546,14 +3561,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3563,11 +3578,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3586,13 +3601,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3603,7 +3618,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3619,24 +3634,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3645,14 +3660,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3662,7 +3677,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3685,7 +3700,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3695,14 +3710,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3711,7 +3726,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3728,7 +3743,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3751,7 +3766,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3784,7 +3799,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3801,7 +3816,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3827,11 +3842,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3843,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,14 +3875,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3876,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,14 +3908,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3916,7 +3931,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3933,7 +3948,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3949,7 +3964,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3966,7 +3981,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3982,7 +3997,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4015,7 +4030,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4048,13 +4063,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4081,7 +4096,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4091,11 +4106,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4107,28 +4122,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4140,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,11 +4172,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>90</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4173,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,14 +4205,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4206,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4230,7 +4245,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4246,24 +4261,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4272,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,14 +4304,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,28 +4320,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4338,28 +4353,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4371,31 +4386,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4421,14 +4436,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>145</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4437,14 +4452,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4454,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4470,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4487,14 +4502,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>164</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>165</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4503,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4520,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>276</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4536,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4553,14 +4568,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>279</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4569,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4586,14 +4601,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>282</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4609,7 +4624,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4619,14 +4634,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4642,7 +4657,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4652,11 +4667,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4668,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4685,14 +4700,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4701,14 +4716,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4718,11 +4733,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4741,7 +4756,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>265</v>
+        <v>27</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4751,11 +4766,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>31</v>
@@ -4767,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4784,11 +4799,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -4800,14 +4815,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4817,14 +4832,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4833,7 +4848,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4850,49 +4865,115 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>299</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>278</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>35</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>272</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q107" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>7515.8400000000001</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>296</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>297</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>298</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c t="s" r="Q108" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>300</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>31</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>35</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>272</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>7655.8400000000001</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>301</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>302</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>303</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5406,10 +5487,20 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -680,6 +680,15 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
   </si>
   <si>
@@ -755,52 +764,55 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 50 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8184:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>XANPRAZAN 20 MG TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>ZIAWET SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
     <t>9:0</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 50 GM</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8184:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XANPRAZAN 20 MG TAB</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>ZIAWET SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
     <t>84.00</t>
@@ -3898,7 +3910,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,11 +3920,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3924,14 +3936,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,14 +3953,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3964,7 +3976,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3997,7 +4009,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4014,7 +4026,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4030,7 +4042,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4063,7 +4075,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4096,7 +4108,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4135,7 +4147,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4162,21 +4174,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4188,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,11 +4217,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4250,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4261,7 +4273,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,14 +4299,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4320,20 +4332,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4344,7 +4356,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4360,21 +4372,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4386,14 +4398,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,7 +4415,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>121</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4432,7 +4444,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4476,7 +4488,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4492,7 +4504,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,14 +4514,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,14 +4530,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>278</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,14 +4547,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,11 +4580,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4584,14 +4596,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,14 +4613,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>282</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4617,7 +4629,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4634,14 +4646,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,14 +4662,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,14 +4679,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,14 +4695,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>112</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4712,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4716,14 +4728,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,11 +4745,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4749,14 +4761,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,14 +4778,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4782,14 +4794,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,14 +4811,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4815,14 +4827,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,14 +4844,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4848,14 +4860,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,14 +4877,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4881,14 +4893,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,11 +4910,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>25</v>
@@ -4914,14 +4926,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4931,7 +4943,7 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -4942,38 +4954,71 @@
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>7655.8400000000001</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>301</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>302</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>303</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>304</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>31</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>35</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>276</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>7708.8400000000001</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>305</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>306</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>307</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5497,10 +5542,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -581,6 +581,12 @@
     <t>184.0000</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -926,7 +932,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 8:01 PM</t>
+    <t>Tuesday, 7 October, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3481,7 +3487,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3491,11 +3497,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3507,14 +3513,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3524,14 +3530,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3547,7 +3553,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3561,7 +3567,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3573,14 +3579,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3590,14 +3596,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3613,7 +3619,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3627,7 +3633,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3639,31 +3645,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3672,31 +3678,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3712,7 +3718,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,11 +3728,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3738,14 +3744,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3778,7 +3784,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3788,11 +3794,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3804,14 +3810,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,11 +3827,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3837,7 +3843,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3854,11 +3860,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3870,14 +3876,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3887,14 +3893,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3903,14 +3909,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3920,14 +3926,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3936,14 +3942,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3953,11 +3959,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3969,14 +3975,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3986,14 +3992,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4002,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4019,11 +4025,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4052,14 +4058,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4068,14 +4074,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4085,11 +4091,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4101,14 +4107,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4118,11 +4124,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4134,14 +4140,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4151,11 +4157,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4167,7 +4173,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4180,15 +4186,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4200,28 +4206,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4240,7 +4246,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4250,14 +4256,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4273,7 +4279,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4283,14 +4289,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4299,14 +4305,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,14 +4322,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4349,14 +4355,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4365,31 +4371,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4398,24 +4404,24 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4438,7 +4444,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4448,11 +4454,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4464,28 +4470,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4497,14 +4503,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4514,14 +4520,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4530,14 +4536,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4547,14 +4553,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,14 +4569,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>282</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4580,14 +4586,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4613,11 +4619,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4636,7 +4642,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>286</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4646,14 +4652,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>286</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4679,11 +4685,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>288</v>
@@ -4702,7 +4708,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4712,14 +4718,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4728,14 +4734,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>112</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4745,11 +4751,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4768,7 +4774,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4778,11 +4784,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4794,14 +4800,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4811,14 +4817,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4834,7 +4840,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4844,14 +4850,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4860,14 +4866,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4877,14 +4883,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4910,14 +4916,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4933,7 +4939,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4943,11 +4949,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -4959,14 +4965,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4976,7 +4982,7 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -4987,38 +4993,71 @@
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>7708.8400000000001</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>305</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>306</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>31</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>35</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>278</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>7753.3900000000003</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
         <v>307</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>308</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>309</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5547,10 +5586,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -539,6 +539,15 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
@@ -563,6 +572,12 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>NORMIFRIN (OXYMETAZLINE-MUP) 0.5MG/ML N</t>
   </si>
   <si>
@@ -641,7 +656,7 @@
     <t>69.00</t>
   </si>
   <si>
-    <t>22.7700</t>
+    <t>45.5400</t>
   </si>
   <si>
     <t>RANCIF 500MG 10 F.C.TAB.</t>
@@ -743,6 +758,12 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>UNIZITHRIN 200MG/5ML SUSP. 30ML</t>
   </si>
   <si>
@@ -761,6 +782,9 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
     <t>VIBRAMYCIN 100MG 10 CAPS.</t>
   </si>
   <si>
@@ -872,18 +896,24 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
@@ -905,9 +935,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>كريم ONE للبشره الحساسه</t>
   </si>
   <si>
@@ -932,7 +959,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 8:14 PM</t>
+    <t>Tuesday, 7 October, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3322,7 +3349,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3332,14 +3359,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3348,14 +3375,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3365,14 +3392,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3381,14 +3408,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3398,14 +3425,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3421,13 +3448,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3438,7 +3465,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3454,7 +3481,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3464,14 +3491,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3480,31 +3507,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3520,7 +3547,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3537,7 +3564,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3553,7 +3580,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3563,14 +3590,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3586,7 +3613,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,14 +3623,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3612,7 +3639,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3629,14 +3656,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3645,14 +3672,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,14 +3689,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3685,13 +3712,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3699,10 +3726,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3711,14 +3738,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3728,7 +3755,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3751,13 +3778,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3768,7 +3795,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3784,7 +3811,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3794,14 +3821,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3817,7 +3844,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3834,7 +3861,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3860,11 +3887,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3876,14 +3903,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3893,11 +3920,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3909,14 +3936,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3926,14 +3953,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3942,14 +3969,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3959,11 +3986,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3975,14 +4002,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,14 +4019,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4008,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4025,14 +4052,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4041,14 +4068,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4058,14 +4085,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4074,14 +4101,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4091,14 +4118,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4107,14 +4134,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4124,14 +4151,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4140,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4157,11 +4184,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4173,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,11 +4217,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4206,28 +4233,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4239,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4256,14 +4283,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4272,14 +4299,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4289,14 +4316,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4312,13 +4339,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4345,7 +4372,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4355,11 +4382,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4371,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4388,14 +4415,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>90</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4404,31 +4431,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4437,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4454,11 +4481,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4470,14 +4497,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4487,14 +4514,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4503,31 +4530,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4536,14 +4563,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4553,14 +4580,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,7 +4596,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4582,18 +4609,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>121</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4602,24 +4629,24 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4635,14 +4662,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4652,11 +4679,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4668,14 +4695,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4685,14 +4712,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>288</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4701,7 +4728,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4718,14 +4745,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>290</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4741,7 +4768,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>112</v>
+        <v>292</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4751,11 +4778,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4767,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4784,11 +4811,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4800,14 +4827,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4817,14 +4844,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4850,14 +4877,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>31</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4866,14 +4893,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4883,14 +4910,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4899,14 +4926,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>277</v>
+        <v>112</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4916,14 +4943,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4932,14 +4959,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4949,11 +4976,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -4965,14 +4992,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4982,11 +5009,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>25</v>
@@ -4998,14 +5025,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5015,49 +5042,214 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>308</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>277</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>35</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>309</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>311</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>285</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>35</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>78</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>312</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>31</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>35</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>313</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>314</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>292</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>35</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>286</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>7753.3900000000003</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>307</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>308</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>309</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q115" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>315</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>31</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>35</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>286</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>8068.8699999999999</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>316</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>317</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>318</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5591,10 +5783,35 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -296,6 +296,18 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN 100MG 30 CAP.</t>
   </si>
   <si>
@@ -314,6 +326,15 @@
     <t>98.0000</t>
   </si>
   <si>
+    <t>CURAM 457MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -533,6 +554,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -815,13 +845,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8184:0</t>
+    <t>8182:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>XANPRAZAN 20 MG TAB</t>
@@ -833,6 +863,15 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>ZIAWET SYRUP 120ML</t>
   </si>
   <si>
@@ -905,15 +944,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28.0000</t>
+    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>14:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
@@ -959,7 +995,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 8:17 PM</t>
+    <t>Tuesday, 7 October, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2392,7 +2428,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2402,14 +2438,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2418,31 +2454,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2451,31 +2487,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2484,14 +2520,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2508,7 +2544,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2524,24 +2560,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2550,14 +2586,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2567,14 +2603,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2583,31 +2619,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2623,7 +2659,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2640,7 +2676,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2649,14 +2685,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2666,14 +2702,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2689,13 +2725,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2722,7 +2758,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2732,14 +2768,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2748,31 +2784,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2781,28 +2817,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2814,14 +2850,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2835,7 +2871,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2847,31 +2883,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2880,14 +2916,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2897,14 +2933,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2913,7 +2949,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2926,15 +2962,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2946,14 +2982,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2963,14 +2999,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2979,20 +3015,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3003,7 +3039,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3019,7 +3055,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3052,7 +3088,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3062,11 +3098,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -3078,14 +3114,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3095,11 +3131,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3111,7 +3147,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3128,14 +3164,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>159</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3144,14 +3180,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3161,11 +3197,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3177,7 +3213,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3194,14 +3230,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3210,14 +3246,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3227,14 +3263,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3243,28 +3279,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3276,14 +3312,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3293,14 +3329,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3309,28 +3345,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3342,14 +3378,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3359,11 +3395,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3375,14 +3411,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3392,11 +3428,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3408,14 +3444,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3425,14 +3461,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3441,14 +3477,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3458,14 +3494,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3474,14 +3510,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3491,14 +3527,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3507,31 +3543,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3540,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3557,14 +3593,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3573,14 +3609,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3590,11 +3626,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3606,31 +3642,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3639,14 +3675,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3656,14 +3692,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3672,14 +3708,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3689,14 +3725,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3705,14 +3741,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,11 +3758,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3738,14 +3774,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3755,14 +3791,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,28 +3807,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3804,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3821,11 +3857,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3837,14 +3873,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,14 +3890,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3870,28 +3906,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3903,14 +3939,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,14 +3956,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3972,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,14 +3989,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3969,7 +4005,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3986,11 +4022,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -4002,14 +4038,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,14 +4055,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4035,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,11 +4088,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4068,7 +4104,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4085,11 +4121,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4101,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4134,14 +4170,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4167,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,11 +4220,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4200,7 +4236,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4217,14 +4253,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4233,14 +4269,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4286,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4266,14 +4302,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,14 +4319,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4299,14 +4335,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,11 +4352,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4332,28 +4368,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4365,14 +4401,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,14 +4418,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4398,14 +4434,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4415,11 +4451,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>91</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4431,31 +4467,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4464,14 +4500,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,14 +4517,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4497,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,14 +4550,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4530,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>119</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,11 +4583,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>31</v>
@@ -4563,28 +4599,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4596,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,14 +4649,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4629,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4662,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4702,24 +4738,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,7 +4764,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4741,18 +4777,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>128</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4761,28 +4797,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4811,11 +4847,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>167</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>168</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4827,14 +4863,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4844,14 +4880,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4860,7 +4896,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4877,14 +4913,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>299</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,14 +4929,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,14 +4946,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>299</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4926,14 +4962,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,11 +4979,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>25</v>
@@ -4959,14 +4995,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,14 +5012,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4992,14 +5028,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,14 +5045,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5025,7 +5061,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5046,10 +5082,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>31</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5058,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5091,14 +5127,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5108,14 +5144,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5124,14 +5160,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>31</v>
+        <v>317</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,11 +5177,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>25</v>
@@ -5157,14 +5193,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>292</v>
+        <v>27</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5174,14 +5210,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5190,14 +5226,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5207,49 +5243,181 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>323</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>298</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>35</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>78</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>324</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>31</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>35</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>325</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>326</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>305</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>35</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>299</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>8068.8699999999999</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>316</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>317</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>318</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c t="s" r="Q119" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>327</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>31</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>35</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>299</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>8430.8700000000008</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>328</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>329</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>330</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5808,10 +5976,30 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -149,6 +149,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -242,6 +251,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CINNARIZINE 25MG 20 TAB.</t>
   </si>
   <si>
@@ -251,6 +272,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CIPROCIN 0.3% EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -533,9 +563,6 @@
     <t>LOPRECOUGH SYRUP 100 ML</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>45.0000</t>
   </si>
   <si>
@@ -557,12 +584,6 @@
     <t>MEGALASE SYRUP 125 ML</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -581,168 +602,177 @@
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>NERCEFAXON 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NORMIFRIN (OXYMETAZLINE-MUP) 0.5MG/ML N</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>184.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>RANCIF 500MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>SANTASEA 180 ML SYRUP</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>400.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
+  </si>
+  <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>NERCEFAXON 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NORMIFRIN (OXYMETAZLINE-MUP) 0.5MG/ML N</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>184.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>265.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>RANCIF 500MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>REVI 2 CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>SANTASEA 180 ML SYRUP</t>
-  </si>
-  <si>
-    <t>400.00</t>
-  </si>
-  <si>
-    <t>400.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -824,7 +854,10 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>52.0000</t>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>78.0000</t>
   </si>
   <si>
     <t>VOLTAREN 1% EMULGEL 50 GM</t>
@@ -875,15 +908,9 @@
     <t>ZIAWET SYRUP 120ML</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>84.00</t>
   </si>
   <si>
@@ -995,7 +1022,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 8:22 PM</t>
+    <t>Tuesday, 7 October, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1900,7 +1927,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1917,7 +1944,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1933,7 +1960,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1943,11 +1970,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1959,14 +1986,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1983,7 +2010,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1999,7 +2026,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2032,7 +2059,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2049,7 +2076,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2065,7 +2092,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2082,7 +2109,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2098,13 +2125,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2115,7 +2142,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2131,13 +2158,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2164,7 +2191,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2181,7 +2208,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2197,7 +2224,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2207,14 +2234,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2230,7 +2257,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2240,14 +2267,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2263,7 +2290,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2273,11 +2300,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2306,11 +2333,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2322,14 +2349,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2339,11 +2366,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2355,7 +2382,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2372,11 +2399,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2405,14 +2432,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2461,7 +2488,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2478,7 +2505,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2494,24 +2521,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2527,7 +2554,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2537,11 +2564,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2553,14 +2580,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2570,14 +2597,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2586,20 +2613,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2610,7 +2637,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2626,24 +2653,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2669,14 +2696,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2702,14 +2729,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2718,31 +2745,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2758,7 +2785,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2768,14 +2795,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2791,24 +2818,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2824,7 +2851,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2857,7 +2884,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2867,14 +2894,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2883,7 +2910,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2900,11 +2927,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2916,14 +2943,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2933,14 +2960,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2949,14 +2976,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2966,11 +2993,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2982,28 +3009,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -3015,28 +3042,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3048,14 +3075,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3065,11 +3092,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3081,14 +3108,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3121,13 +3148,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3154,7 +3181,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3164,14 +3191,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3197,14 +3224,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3230,14 +3257,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3246,14 +3273,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3263,14 +3290,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3279,14 +3306,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3296,14 +3323,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3312,14 +3339,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3329,14 +3356,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3345,31 +3372,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3378,14 +3405,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3395,14 +3422,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3411,14 +3438,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3428,11 +3455,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3444,28 +3471,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3477,14 +3504,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,11 +3521,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3510,14 +3537,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3527,11 +3554,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3543,14 +3570,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3560,14 +3587,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3576,14 +3603,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3593,14 +3620,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3609,14 +3636,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3626,14 +3653,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3649,24 +3676,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3675,14 +3702,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3692,14 +3719,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3708,14 +3735,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3725,11 +3752,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3741,31 +3768,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3774,14 +3801,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3791,14 +3818,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3807,14 +3834,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3824,14 +3851,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3847,7 +3874,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3861,7 +3888,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3873,14 +3900,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,14 +3917,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3913,21 +3940,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>85</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3939,14 +3966,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3956,11 +3983,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3972,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3989,14 +4016,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4005,24 +4032,24 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4045,7 +4072,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4055,14 +4082,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4071,14 +4098,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,14 +4115,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4104,28 +4131,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>54</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4137,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4154,14 +4181,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4170,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,11 +4214,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4203,7 +4230,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4220,11 +4247,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4236,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4269,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4302,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,11 +4346,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4335,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4352,11 +4379,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4368,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4385,14 +4412,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4401,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,14 +4445,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4434,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,11 +4478,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4467,28 +4494,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4500,14 +4527,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4533,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4566,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4583,14 +4610,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4599,28 +4626,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4632,14 +4659,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,11 +4676,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4665,14 +4692,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,14 +4709,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>100</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,31 +4725,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,14 +4758,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4775,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,14 +4808,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4797,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,14 +4841,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4830,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,11 +4874,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4863,31 +4890,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4896,7 +4923,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4909,18 +4936,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4929,28 +4956,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -4962,14 +4989,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,11 +5006,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>25</v>
@@ -4995,14 +5022,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5012,14 +5039,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5045,14 +5072,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>188</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>305</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5061,14 +5088,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>27</v>
+        <v>314</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5078,14 +5105,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>312</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5094,14 +5121,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>119</v>
+        <v>316</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5111,11 +5138,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>47</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5127,14 +5154,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,14 +5171,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>300</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5160,14 +5187,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,14 +5204,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5193,7 +5220,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5210,14 +5237,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>155</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5226,14 +5253,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,11 +5270,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>25</v>
@@ -5259,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,14 +5303,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5292,14 +5319,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>31</v>
+        <v>326</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,11 +5336,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>25</v>
@@ -5325,14 +5352,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,14 +5369,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5358,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5375,49 +5402,181 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>332</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>307</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>35</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>85</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>333</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>31</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>35</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>334</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>335</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>314</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>35</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>308</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>8430.8700000000008</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>328</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>329</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>330</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>336</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>31</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>35</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>308</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>8729.8700000000008</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>337</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>338</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>339</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5996,10 +6155,30 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -431,6 +431,15 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>261.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
@@ -506,13 +515,10 @@
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>173.00</t>
   </si>
   <si>
-    <t>173.0000</t>
+    <t>692.0000</t>
   </si>
   <si>
     <t>INTEGROL 10MG 30 F.C. TABLETS</t>
@@ -710,6 +716,15 @@
     <t>45.5400</t>
   </si>
   <si>
+    <t>PENDULINE KIDS SHAMPOO 450ML</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -893,7 +908,7 @@
     <t>156.00</t>
   </si>
   <si>
-    <t>156.0000</t>
+    <t>312.0000</t>
   </si>
   <si>
     <t>XORAXON 1GM I.V. VIAL</t>
@@ -1022,7 +1037,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 8:28 PM</t>
+    <t>Tuesday, 7 October, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2917,24 +2932,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>142</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2950,13 +2965,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2983,7 +2998,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2993,14 +3008,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3009,31 +3024,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3042,31 +3057,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3082,7 +3097,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3092,7 +3107,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3115,7 +3130,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3132,7 +3147,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3148,13 +3163,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3165,7 +3180,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3181,13 +3196,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3214,7 +3229,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3224,14 +3239,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3240,14 +3255,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3257,14 +3272,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3290,14 +3305,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3323,14 +3338,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3346,7 +3361,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3372,14 +3387,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3422,14 +3437,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3438,14 +3453,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3455,7 +3470,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3484,15 +3499,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3504,31 +3519,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3544,7 +3559,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3554,14 +3569,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3570,14 +3585,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3587,11 +3602,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3610,7 +3625,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3624,10 +3639,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3653,14 +3668,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3669,14 +3684,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3686,14 +3701,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3702,14 +3717,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3719,14 +3734,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3735,14 +3750,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3752,14 +3767,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3775,24 +3790,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3801,31 +3816,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3834,14 +3849,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3851,14 +3866,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3874,7 +3889,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3884,11 +3899,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3900,14 +3915,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3917,14 +3932,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3940,7 +3955,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3957,7 +3972,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3973,7 +3988,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3983,14 +3998,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4006,7 +4021,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4020,7 +4035,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4032,31 +4047,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4065,31 +4080,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4105,7 +4120,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4115,14 +4130,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4131,31 +4146,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4171,7 +4186,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4181,11 +4196,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4197,24 +4212,24 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>54</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4247,11 +4262,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4263,14 +4278,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4280,11 +4295,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4296,14 +4311,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4313,14 +4328,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4329,14 +4344,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4346,11 +4361,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4362,14 +4377,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4379,14 +4394,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4402,7 +4417,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4419,7 +4434,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4435,7 +4450,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4445,14 +4460,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4461,14 +4476,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4478,14 +4493,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4494,14 +4509,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4511,14 +4526,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4527,14 +4542,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4544,11 +4559,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4560,14 +4575,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4577,14 +4592,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>165</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4600,7 +4615,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4633,24 +4648,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4659,14 +4674,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,14 +4691,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4692,28 +4707,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4725,14 +4740,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4742,14 +4757,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4765,7 +4780,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4775,11 +4790,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4791,14 +4806,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4808,14 +4823,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4831,7 +4846,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4841,14 +4856,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4857,31 +4872,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4890,14 +4905,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4907,14 +4922,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>165</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4923,7 +4938,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4936,18 +4951,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4956,14 +4971,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4973,14 +4988,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4989,28 +5004,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>303</v>
+        <v>27</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>138</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>25</v>
@@ -5022,31 +5037,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>307</v>
+        <v>81</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5055,14 +5070,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5072,14 +5087,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>165</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5088,14 +5103,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5105,14 +5120,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5128,7 +5143,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>316</v>
+        <v>27</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5138,14 +5153,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>184</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5154,14 +5169,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>27</v>
+        <v>319</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5171,14 +5186,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>219</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5187,14 +5202,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>27</v>
+        <v>321</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5204,14 +5219,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>290</v>
+        <v>47</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>314</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5220,7 +5235,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5237,14 +5252,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>321</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5253,14 +5268,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5270,14 +5285,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5293,7 +5308,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>326</v>
+        <v>27</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5303,14 +5318,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>316</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5326,7 +5341,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>326</v>
+        <v>129</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5336,11 +5351,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>25</v>
@@ -5352,14 +5367,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5369,14 +5384,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>165</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5385,14 +5400,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5402,11 +5417,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>25</v>
@@ -5418,14 +5433,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>307</v>
+        <v>27</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5435,14 +5450,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>31</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5451,14 +5466,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5468,11 +5483,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>25</v>
@@ -5484,14 +5499,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5501,14 +5516,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5517,7 +5532,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5534,49 +5549,115 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>340</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>319</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>35</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>313</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q124" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>8729.8700000000008</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>337</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>338</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>339</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c t="s" r="Q125" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>341</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>31</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>35</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>313</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>9850.8700000000008</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>342</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>343</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>344</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6175,10 +6256,20 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>46.5300</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -233,6 +242,18 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CERVITAM 20 CAPS.</t>
   </si>
   <si>
@@ -521,6 +542,15 @@
     <t>692.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>INTEGROL 10MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -680,9 +710,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
@@ -830,9 +857,6 @@
     <t>105.00</t>
   </si>
   <si>
-    <t>105.0000</t>
-  </si>
-  <si>
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
   </si>
   <si>
@@ -893,15 +917,12 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8182:0</t>
+    <t>8180:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>XANPRAZAN 20 MG TAB</t>
   </si>
   <si>
@@ -1037,7 +1058,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 8:29 PM</t>
+    <t>Tuesday, 7 October, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2008,7 +2029,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2018,11 +2039,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2034,14 +2055,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2058,7 +2079,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2074,7 +2095,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2107,7 +2128,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2124,7 +2145,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2140,7 +2161,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2157,7 +2178,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2173,13 +2194,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2190,7 +2211,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2206,13 +2227,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2239,7 +2260,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2256,7 +2277,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2282,14 +2303,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2298,14 +2319,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2322,7 +2343,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2338,7 +2359,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2348,14 +2369,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2371,7 +2392,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2381,11 +2402,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2397,14 +2418,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2414,14 +2435,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2430,14 +2451,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2447,14 +2468,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2463,14 +2484,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2480,11 +2501,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2496,14 +2517,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2513,14 +2534,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2529,14 +2550,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2546,14 +2567,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2562,14 +2583,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2602,7 +2623,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2612,14 +2633,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2635,21 +2656,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2661,14 +2682,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2678,14 +2699,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2694,31 +2715,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2727,14 +2748,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2751,7 +2772,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2767,24 +2788,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2793,14 +2814,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2810,14 +2831,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2826,31 +2847,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2866,7 +2887,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2883,7 +2904,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2892,14 +2913,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2909,14 +2930,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2932,7 +2953,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2942,14 +2963,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2965,24 +2986,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2991,7 +3012,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3024,31 +3045,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3057,28 +3078,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -3090,14 +3111,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3107,11 +3128,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3123,31 +3144,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3156,14 +3177,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3173,14 +3194,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3189,7 +3210,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3202,15 +3223,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3239,14 +3260,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3255,31 +3276,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3288,14 +3309,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3305,11 +3326,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3321,14 +3342,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3338,14 +3359,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3371,14 +3392,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3387,14 +3408,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3404,14 +3425,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3420,14 +3441,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3437,14 +3458,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3453,14 +3474,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3470,14 +3491,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3486,14 +3507,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3503,14 +3524,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3519,31 +3540,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3552,14 +3573,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3569,14 +3590,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3585,14 +3606,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3602,11 +3623,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3618,28 +3639,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3651,14 +3672,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3668,11 +3689,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3684,14 +3705,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3701,14 +3722,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3717,14 +3738,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3734,14 +3755,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3750,14 +3771,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3767,14 +3788,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3783,14 +3804,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3800,14 +3821,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3816,31 +3837,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3849,14 +3870,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3866,14 +3887,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3882,14 +3903,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3899,11 +3920,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3915,31 +3936,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3948,14 +3969,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3965,14 +3986,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3981,14 +4002,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3998,14 +4019,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4014,14 +4035,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4031,11 +4052,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4047,14 +4068,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4064,14 +4085,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4080,28 +4101,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -4113,14 +4134,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4130,11 +4151,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4146,14 +4167,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4163,14 +4184,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4179,28 +4200,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4212,31 +4233,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4245,14 +4266,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4262,14 +4283,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4278,14 +4299,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4295,11 +4316,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4311,28 +4332,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>57</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4344,7 +4365,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4361,7 +4382,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4384,7 +4405,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4401,7 +4422,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4417,7 +4438,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4460,11 +4481,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4476,14 +4497,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4493,14 +4514,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4509,14 +4530,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4526,14 +4547,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4542,14 +4563,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4559,7 +4580,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4599,7 +4620,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4615,7 +4636,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4632,7 +4653,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4648,7 +4669,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4658,14 +4679,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4674,14 +4695,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4691,11 +4712,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4707,28 +4728,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4747,7 +4768,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4757,14 +4778,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4773,14 +4794,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4790,11 +4811,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4806,31 +4827,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4839,14 +4860,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4856,14 +4877,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4889,14 +4910,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4922,14 +4943,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>218</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4938,31 +4959,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4971,14 +4992,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4988,14 +5009,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5004,14 +5025,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5021,14 +5042,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>138</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5044,13 +5065,13 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5061,7 +5082,7 @@
         <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5077,24 +5098,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5103,31 +5124,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>312</v>
+        <v>27</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>145</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5136,31 +5157,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5169,14 +5190,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5186,11 +5207,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>316</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
@@ -5202,14 +5223,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5219,14 +5240,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>186</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,10 +5277,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>221</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>78</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5268,14 +5289,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5285,14 +5306,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>319</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5301,14 +5322,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>27</v>
+        <v>328</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5318,14 +5339,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>326</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5334,14 +5355,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5351,14 +5372,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5367,14 +5388,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>331</v>
+        <v>27</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5384,14 +5405,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5407,7 +5428,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>331</v>
+        <v>27</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5417,14 +5438,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>25</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5433,14 +5454,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5450,14 +5471,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>186</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5466,14 +5487,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5483,11 +5504,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>14</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>25</v>
@@ -5499,14 +5520,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5516,14 +5537,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>219</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5532,14 +5553,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5549,14 +5570,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>25</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5565,14 +5586,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>319</v>
+        <v>88</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5582,11 +5603,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>25</v>
@@ -5598,14 +5619,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>31</v>
+        <v>319</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5615,49 +5636,148 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>313</v>
+        <v>92</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>345</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>31</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>35</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>346</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>347</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>326</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>35</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>320</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>9850.8700000000008</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>342</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>343</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>344</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q128" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>348</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>31</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>35</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>320</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>10094.870000000001</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>349</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>350</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>351</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6266,10 +6386,25 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -440,6 +440,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -960,9 +969,6 @@
   </si>
   <si>
     <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -2986,7 +2992,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2996,14 +3002,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3012,14 +3018,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3029,14 +3035,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>149</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3052,24 +3058,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>152</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3085,13 +3091,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3118,7 +3124,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3128,14 +3134,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3144,31 +3150,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3177,31 +3183,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3217,7 +3223,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3227,7 +3233,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3250,7 +3256,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3267,7 +3273,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3283,13 +3289,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3300,7 +3306,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3316,13 +3322,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3349,7 +3355,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3366,7 +3372,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3382,7 +3388,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3399,7 +3405,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3415,7 +3421,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3432,7 +3438,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3448,7 +3454,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3458,14 +3464,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3474,14 +3480,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3491,14 +3497,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3507,14 +3513,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3524,14 +3530,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3547,7 +3553,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3557,14 +3563,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>191</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3580,7 +3586,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3590,14 +3596,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3613,7 +3619,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3623,11 +3629,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3639,7 +3645,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3652,11 +3658,11 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3679,24 +3685,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3705,14 +3711,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3722,14 +3728,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3738,14 +3744,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3755,11 +3761,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3771,14 +3777,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3788,14 +3794,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3811,7 +3817,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3828,7 +3834,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3844,7 +3850,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3854,14 +3860,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3870,14 +3876,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3887,14 +3893,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3910,7 +3916,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3920,14 +3926,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3936,31 +3942,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3976,13 +3982,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3993,7 +3999,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4009,7 +4015,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4019,14 +4025,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4052,7 +4058,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4075,7 +4081,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4085,14 +4091,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>92</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4101,14 +4107,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4122,10 +4128,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4134,14 +4140,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4151,14 +4157,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4167,14 +4173,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4184,11 +4190,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4207,13 +4213,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4224,7 +4230,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4240,24 +4246,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4266,14 +4272,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4283,14 +4289,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4306,7 +4312,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4323,7 +4329,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4339,21 +4345,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4365,28 +4371,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>57</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4398,14 +4404,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4415,7 +4421,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4438,7 +4444,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4504,7 +4510,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4521,7 +4527,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4537,7 +4543,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4554,7 +4560,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4570,7 +4576,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4580,11 +4586,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4596,14 +4602,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4613,14 +4619,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4636,7 +4642,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4669,7 +4675,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4686,7 +4692,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4702,7 +4708,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4735,7 +4741,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4749,7 +4755,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4761,14 +4767,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4778,14 +4784,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>149</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4794,14 +4800,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4811,14 +4817,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4840,7 +4846,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4867,24 +4873,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>32</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4910,14 +4916,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4926,14 +4932,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4943,14 +4949,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>149</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4966,7 +4972,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>31</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4976,14 +4982,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4999,7 +5005,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5009,14 +5015,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5025,14 +5031,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5042,14 +5048,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5065,24 +5071,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5098,13 +5104,13 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5115,7 +5121,7 @@
         <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5131,7 +5137,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5141,14 +5147,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5157,14 +5163,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,11 +5180,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>148</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5197,21 +5203,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>88</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
@@ -5223,14 +5229,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5240,14 +5246,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,14 +5262,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>27</v>
+        <v>321</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5273,14 +5279,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5289,14 +5295,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>326</v>
+        <v>27</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5306,14 +5312,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5339,11 +5345,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>196</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>25</v>
@@ -5362,7 +5368,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>27</v>
+        <v>330</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5372,14 +5378,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>330</v>
+        <v>47</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5405,14 +5411,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>326</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5421,7 +5427,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5438,14 +5444,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5461,7 +5467,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,14 +5477,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>25</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5487,14 +5493,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>338</v>
+        <v>136</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5504,11 +5510,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>14</v>
+        <v>337</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>25</v>
@@ -5527,7 +5533,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,11 +5543,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>14</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>25</v>
@@ -5553,14 +5559,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>27</v>
+        <v>340</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5570,14 +5576,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>196</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>149</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5586,14 +5592,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5603,14 +5609,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>343</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5619,14 +5625,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>319</v>
+        <v>88</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,14 +5642,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>92</v>
+        <v>344</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5652,14 +5658,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,14 +5675,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>346</v>
+        <v>92</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5692,7 +5698,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>326</v>
+        <v>31</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5702,11 +5708,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>25</v>
@@ -5718,14 +5724,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>31</v>
+        <v>328</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5735,7 +5741,7 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
@@ -5746,38 +5752,71 @@
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>10094.870000000001</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>349</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>350</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>31</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>35</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>322</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>10129.870000000001</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
         <v>351</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>352</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>353</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6401,10 +6440,15 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -155,7 +155,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>90.0000</t>
+    <t>45.0000</t>
   </si>
   <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
@@ -605,12 +605,12 @@
     <t>240.0000</t>
   </si>
   <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
     <t>LOPRECOUGH SYRUP 100 ML</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>LOTERANOL 0.5% EYE DROPS</t>
   </si>
   <si>
@@ -647,10 +647,13 @@
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>50.00</t>
   </si>
   <si>
-    <t>100.0000</t>
+    <t>50.0000</t>
   </si>
   <si>
     <t>MYOFEN 30 CAPS</t>
@@ -761,12 +764,6 @@
     <t>185.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
     <t>RANCIF 500MG 10 F.C.TAB.</t>
   </si>
   <si>
@@ -821,9 +818,6 @@
     <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -1064,7 +1058,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 8:33 PM</t>
+    <t>Tuesday, 7 October, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1969,7 +1963,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1986,7 +1980,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -3652,7 +3646,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3662,11 +3656,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3678,7 +3672,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3691,15 +3685,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3711,31 +3705,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3744,14 +3738,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3761,14 +3755,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3777,14 +3771,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3794,11 +3788,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3810,14 +3804,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3827,14 +3821,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3843,14 +3837,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3860,14 +3854,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3876,14 +3870,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3893,14 +3887,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3916,7 +3910,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3926,14 +3920,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3942,14 +3936,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3959,14 +3953,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3975,31 +3969,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4008,31 +4002,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4041,14 +4035,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4058,14 +4052,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4074,14 +4068,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4091,11 +4085,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4107,14 +4101,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4124,14 +4118,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4140,14 +4134,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4161,10 +4155,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4173,14 +4167,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4190,14 +4184,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4213,7 +4207,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4223,11 +4217,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4239,31 +4233,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4272,31 +4266,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4305,14 +4299,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4322,14 +4316,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4338,14 +4332,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4355,14 +4349,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4371,28 +4365,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4404,7 +4398,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4421,11 +4415,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4437,7 +4431,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4454,11 +4448,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4470,7 +4464,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4487,11 +4481,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4503,7 +4497,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4520,11 +4514,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4536,7 +4530,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4553,11 +4547,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>39</v>
@@ -4569,7 +4563,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4586,11 +4580,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4602,7 +4596,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4619,11 +4613,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4635,7 +4629,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4652,11 +4646,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4668,7 +4662,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4685,11 +4679,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4701,7 +4695,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4718,11 +4712,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4734,7 +4728,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4751,11 +4745,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4767,7 +4761,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4784,7 +4778,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4800,7 +4794,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4821,7 +4815,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>152</v>
@@ -4833,7 +4827,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4850,11 +4844,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4866,7 +4860,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4883,11 +4877,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4899,7 +4893,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4932,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4965,14 +4959,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4982,11 +4976,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>152</v>
@@ -4998,7 +4992,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5015,11 +5009,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -5031,14 +5025,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5052,7 +5046,7 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5064,14 +5058,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5081,7 +5075,7 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -5097,7 +5091,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5114,11 +5108,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>31</v>
@@ -5130,7 +5124,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5147,11 +5141,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>152</v>
@@ -5163,7 +5157,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5184,7 +5178,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5196,7 +5190,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5213,11 +5207,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
@@ -5229,14 +5223,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5246,7 +5240,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5262,14 +5256,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5279,11 +5273,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>31</v>
@@ -5295,7 +5289,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5312,11 +5306,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>152</v>
@@ -5328,14 +5322,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5349,7 +5343,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>25</v>
@@ -5361,14 +5355,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5382,7 +5376,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>25</v>
@@ -5394,7 +5388,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5411,11 +5405,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>85</v>
@@ -5427,7 +5421,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5444,14 +5438,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5460,7 +5454,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5477,14 +5471,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5493,7 +5487,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5510,11 +5504,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>25</v>
@@ -5526,14 +5520,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5547,7 +5541,7 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>25</v>
@@ -5559,14 +5553,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5576,11 +5570,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>25</v>
@@ -5592,7 +5586,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5609,11 +5603,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>152</v>
@@ -5625,7 +5619,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5642,11 +5636,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>25</v>
@@ -5658,14 +5652,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5679,7 +5673,7 @@
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>31</v>
@@ -5691,7 +5685,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5708,7 +5702,7 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
@@ -5724,14 +5718,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5741,7 +5735,7 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
@@ -5757,7 +5751,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5774,7 +5768,7 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
@@ -5786,13 +5780,13 @@
     </row>
     <row r="131" ht="25.5" customHeight="1">
       <c r="P131" s="13">
-        <v>10129.870000000001</v>
+        <v>10217.870000000001</v>
       </c>
       <c r="Q131" s="13"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
       <c t="s" r="A132" s="14">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -5800,13 +5794,13 @@
       <c r="E132" s="14"/>
       <c r="F132" s="14"/>
       <c t="s" r="G132" s="15">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
       <c r="J132" s="16"/>
       <c t="s" r="K132" s="17">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L132" s="17"/>
       <c r="M132" s="17"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -761,7 +761,7 @@
     <t>185.00</t>
   </si>
   <si>
-    <t>185.0000</t>
+    <t>370.0000</t>
   </si>
   <si>
     <t>RANCIF 500MG 10 F.C.TAB.</t>
@@ -1058,7 +1058,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 8:40 PM</t>
+    <t>Tuesday, 7 October, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4372,7 +4372,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4389,7 +4389,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -5780,7 +5780,7 @@
     </row>
     <row r="131" ht="25.5" customHeight="1">
       <c r="P131" s="13">
-        <v>10217.870000000001</v>
+        <v>10402.870000000001</v>
       </c>
       <c r="Q131" s="13"/>
     </row>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>77.0000</t>
   </si>
   <si>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>CALMARE PLUS 130 ML NASAL SPRAY</t>
   </si>
   <si>
@@ -749,9 +758,6 @@
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
     <t>45.5400</t>
   </si>
   <si>
@@ -764,12 +770,15 @@
     <t>370.0000</t>
   </si>
   <si>
+    <t>PROXIMOL 0.4MG 40 TAB</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>RANCIF 500MG 10 F.C.TAB.</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -779,6 +788,12 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>RENAL S-N 12 SACHET</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>REVI 2 CREAM 50 GM</t>
   </si>
   <si>
@@ -1049,16 +1064,13 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 8:41 PM</t>
+    <t>Tuesday, 7 October, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2293,7 +2305,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2303,14 +2315,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2359,7 +2371,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2369,14 +2381,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2402,14 +2414,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2442,7 +2454,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2458,7 +2470,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2475,7 +2487,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2491,7 +2503,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2524,7 +2536,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2541,7 +2553,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2557,7 +2569,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2574,7 +2586,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2590,7 +2602,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2623,7 +2635,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2633,14 +2645,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2666,14 +2678,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2706,7 +2718,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2722,13 +2734,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2739,7 +2751,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2755,13 +2767,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2788,7 +2800,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2805,7 +2817,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2821,7 +2833,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2831,11 +2843,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>39</v>
@@ -2847,31 +2859,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2880,31 +2892,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2930,14 +2942,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>139</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2953,7 +2965,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2963,14 +2975,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3003,7 +3015,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3019,7 +3031,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3029,14 +3041,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3062,14 +3074,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3085,24 +3097,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3118,13 +3130,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3151,7 +3163,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3161,14 +3173,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3177,31 +3189,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3210,31 +3222,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3250,7 +3262,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3260,7 +3272,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3283,7 +3295,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3300,7 +3312,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3316,13 +3328,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3333,7 +3345,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3349,13 +3361,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3382,7 +3394,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3399,7 +3411,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3415,7 +3427,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3432,7 +3444,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3448,7 +3460,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3465,7 +3477,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3481,7 +3493,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3491,14 +3503,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3524,14 +3536,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3540,14 +3552,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3557,14 +3569,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3580,7 +3592,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3590,14 +3602,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3613,7 +3625,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3656,11 +3668,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3689,11 +3701,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3705,7 +3717,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3718,15 +3730,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3745,24 +3757,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3788,14 +3800,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3821,11 +3833,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3854,14 +3866,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3877,7 +3889,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3903,14 +3915,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3920,14 +3932,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3936,14 +3948,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3953,14 +3965,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3976,7 +3988,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3986,14 +3998,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4002,31 +4014,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4042,13 +4054,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -4059,7 +4071,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4075,7 +4087,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4085,14 +4097,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4101,14 +4113,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4118,7 +4130,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4141,7 +4153,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4151,14 +4163,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>92</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4167,14 +4179,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4184,14 +4196,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4200,14 +4212,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4217,14 +4229,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4250,11 +4262,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4273,13 +4285,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4290,7 +4302,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4306,24 +4318,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4349,14 +4361,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4372,7 +4384,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4382,14 +4394,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4398,14 +4410,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4415,14 +4427,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4438,7 +4450,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4448,14 +4460,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4464,7 +4476,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4481,11 +4493,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4497,14 +4509,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4514,11 +4526,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4530,14 +4542,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4547,14 +4559,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4563,14 +4575,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4580,11 +4592,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4596,7 +4608,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4613,11 +4625,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4629,14 +4641,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4646,14 +4658,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4662,14 +4674,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4679,14 +4691,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4695,14 +4707,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4712,11 +4724,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4728,7 +4740,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4745,14 +4757,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4761,14 +4773,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4778,14 +4790,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>54</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4794,14 +4806,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4811,14 +4823,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>148</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4827,14 +4839,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4844,11 +4856,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4860,28 +4872,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4893,14 +4905,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4910,14 +4922,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>33</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4926,14 +4938,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4943,11 +4955,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>107</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>108</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -4959,31 +4971,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4992,14 +5004,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5009,14 +5021,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>32</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5025,14 +5037,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5042,14 +5054,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5058,14 +5070,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5075,14 +5087,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>93</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5091,31 +5103,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5124,14 +5136,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5141,14 +5153,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5157,14 +5169,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,14 +5186,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5190,31 +5202,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5223,31 +5235,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>145</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,31 +5268,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>151</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5289,31 +5301,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5322,14 +5334,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5339,11 +5351,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>25</v>
@@ -5355,14 +5367,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5372,14 +5384,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>47</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>48</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5388,7 +5400,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5405,14 +5417,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5421,14 +5433,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5438,14 +5450,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>304</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>326</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5461,7 +5473,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,14 +5483,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>47</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5494,7 +5506,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5508,10 +5520,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5520,14 +5532,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>27</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,14 +5549,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>321</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>25</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5553,14 +5565,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>338</v>
+        <v>27</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5570,14 +5582,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>25</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5586,14 +5598,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5603,14 +5615,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>48</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5619,14 +5631,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,11 +5648,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>342</v>
+        <v>14</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>25</v>
@@ -5659,7 +5671,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,14 +5681,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>92</v>
+        <v>340</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5692,7 +5704,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5702,14 +5714,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>25</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5718,14 +5730,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>326</v>
+        <v>91</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5735,11 +5747,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>15</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>25</v>
@@ -5751,14 +5763,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5768,49 +5780,148 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>350</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>31</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>35</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>260</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>351</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>331</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>35</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>325</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q130" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>10402.870000000001</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>349</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>350</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>351</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c t="s" r="Q132" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>352</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>31</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>35</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>325</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>10518.870000000001</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>353</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>354</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>355</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6439,10 +6550,25 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -479,6 +479,12 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
@@ -770,6 +776,12 @@
     <t>370.0000</t>
   </si>
   <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
     <t>PROXIMOL 0.4MG 40 TAB</t>
   </si>
   <si>
@@ -788,6 +800,12 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>REGIMAX 120MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>RENAL S-N 12 SACHET</t>
   </si>
   <si>
@@ -830,6 +848,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>STATUKAST 4MG ORAL GRANULES 10 SACHETS</t>
   </si>
   <si>
@@ -1070,7 +1097,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 8:52 PM</t>
+    <t>Tuesday, 7 October, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3130,13 +3157,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3144,10 +3171,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3156,28 +3183,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -3189,14 +3216,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3206,14 +3233,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3222,31 +3249,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3262,24 +3289,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3288,14 +3315,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3305,11 +3332,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3321,14 +3348,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3338,14 +3365,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3354,31 +3381,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3387,28 +3414,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3420,14 +3447,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3437,14 +3464,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3453,14 +3480,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3470,14 +3497,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3486,14 +3513,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3503,14 +3530,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3519,14 +3546,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3536,14 +3563,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3552,14 +3579,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3569,14 +3596,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3592,7 +3619,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3602,14 +3629,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3618,14 +3645,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3635,14 +3662,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3651,14 +3678,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3668,14 +3695,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3684,7 +3711,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3701,11 +3728,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3717,14 +3744,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3734,11 +3761,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3750,7 +3777,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3763,15 +3790,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3783,31 +3810,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3823,7 +3850,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3833,14 +3860,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3849,14 +3876,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3866,11 +3893,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3889,7 +3916,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3903,10 +3930,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3915,14 +3942,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3932,14 +3959,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3948,14 +3975,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3965,14 +3992,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3981,14 +4008,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3998,14 +4025,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4014,14 +4041,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4031,14 +4058,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4054,24 +4081,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4080,31 +4107,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4113,14 +4140,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4130,14 +4157,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4153,7 +4180,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4163,11 +4190,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4179,14 +4206,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4196,14 +4223,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4219,7 +4246,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4236,7 +4263,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4252,7 +4279,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4262,14 +4289,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4278,14 +4305,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4295,11 +4322,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4311,31 +4338,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4344,31 +4371,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4384,7 +4411,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4394,14 +4421,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4417,7 +4444,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4427,14 +4454,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4443,7 +4470,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4460,14 +4487,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4483,7 +4510,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4493,14 +4520,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4509,14 +4536,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4526,14 +4553,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4549,7 +4576,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4559,11 +4586,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4575,14 +4602,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4592,11 +4619,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4608,14 +4635,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4625,14 +4652,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4641,14 +4668,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4658,14 +4685,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4674,14 +4701,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4691,11 +4718,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4707,7 +4734,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4724,11 +4751,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4740,14 +4767,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4757,14 +4784,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4773,14 +4800,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4790,14 +4817,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4806,14 +4833,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4823,14 +4850,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4839,14 +4866,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4856,11 +4883,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4872,14 +4899,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4889,14 +4916,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>54</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4905,14 +4932,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4922,14 +4949,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4938,14 +4965,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4955,11 +4982,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -4971,28 +4998,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>25</v>
@@ -5004,14 +5031,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5021,14 +5048,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>32</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5044,7 +5071,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5054,14 +5081,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5077,7 +5104,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>27</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5087,14 +5114,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5110,13 +5137,13 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5143,7 +5170,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5153,11 +5180,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5169,14 +5196,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5186,14 +5213,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5202,31 +5229,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5235,14 +5262,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5252,14 +5279,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5268,14 +5295,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>27</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5285,14 +5312,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5301,14 +5328,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5322,10 +5349,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5334,14 +5361,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5351,14 +5378,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>148</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5367,31 +5394,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5400,7 +5427,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5413,18 +5440,18 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5433,28 +5460,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>331</v>
+        <v>91</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>25</v>
@@ -5466,14 +5493,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5483,11 +5510,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>25</v>
@@ -5499,14 +5526,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5516,14 +5543,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5549,14 +5576,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>331</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5565,14 +5592,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>27</v>
+        <v>340</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5582,14 +5609,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>338</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5598,14 +5625,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>139</v>
+        <v>342</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5615,11 +5642,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>340</v>
+        <v>47</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>341</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>25</v>
@@ -5631,14 +5658,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>343</v>
+        <v>27</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5648,14 +5675,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5664,14 +5691,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>343</v>
+        <v>27</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5681,14 +5708,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>341</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>25</v>
+        <v>340</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5697,7 +5724,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5714,14 +5741,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>48</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>155</v>
+        <v>347</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5730,14 +5757,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5747,11 +5774,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>25</v>
@@ -5763,14 +5790,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5780,14 +5807,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>236</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5796,14 +5823,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>31</v>
+        <v>352</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5813,11 +5840,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>213</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>25</v>
@@ -5829,14 +5856,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>331</v>
+        <v>27</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5846,14 +5873,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>25</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5862,14 +5889,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5879,49 +5906,181 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>357</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>358</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>333</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>35</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>95</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>359</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>31</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>35</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>266</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>360</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>340</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>35</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>334</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q133" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>10518.870000000001</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>353</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>354</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>355</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c t="s" r="Q136" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>361</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>31</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>35</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>334</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>10750.81</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>362</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>363</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>364</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6565,10 +6724,30 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -470,6 +470,12 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
   </si>
   <si>
@@ -635,6 +641,12 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>MAXICAL D SUSPENSION 120 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>MEDEXAFLAM 15MG 20 TABS.</t>
   </si>
   <si>
@@ -725,9 +737,6 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -1097,7 +1106,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 8:54 PM</t>
+    <t>Tuesday, 7 October, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3124,7 +3133,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3134,14 +3143,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3150,14 +3159,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3167,14 +3176,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3190,13 +3199,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3204,10 +3213,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3216,28 +3225,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3266,14 +3275,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3282,31 +3291,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3322,24 +3331,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3348,14 +3357,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3365,11 +3374,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3381,14 +3390,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3398,14 +3407,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3414,31 +3423,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3447,28 +3456,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3497,14 +3506,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3513,14 +3522,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3530,14 +3539,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3546,14 +3555,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3563,14 +3572,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3579,14 +3588,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3596,14 +3605,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3612,14 +3621,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3629,14 +3638,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3652,7 +3661,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3662,14 +3671,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3678,14 +3687,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3695,14 +3704,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3711,14 +3720,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3728,14 +3737,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3744,7 +3753,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3761,11 +3770,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3777,14 +3786,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3794,11 +3803,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3810,7 +3819,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3823,15 +3832,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3843,31 +3852,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3883,7 +3892,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3893,11 +3902,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3909,14 +3918,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3926,14 +3935,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3942,14 +3951,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3959,14 +3968,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3975,14 +3984,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3992,11 +4001,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -4008,14 +4017,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4025,11 +4034,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4041,14 +4050,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4065,7 +4074,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4081,7 +4090,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4091,11 +4100,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4107,31 +4116,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4140,14 +4149,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4157,14 +4166,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4173,31 +4182,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4206,14 +4215,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4223,14 +4232,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4239,7 +4248,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4256,14 +4265,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4272,14 +4281,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4289,14 +4298,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4312,7 +4321,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4322,14 +4331,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4345,7 +4354,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4355,14 +4364,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4371,31 +4380,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4404,14 +4413,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4421,11 +4430,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4437,31 +4446,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4470,14 +4479,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4487,14 +4496,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4503,14 +4512,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4520,14 +4529,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4536,7 +4545,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4553,14 +4562,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4569,14 +4578,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4586,14 +4595,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4609,7 +4618,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4619,14 +4628,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4635,14 +4644,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4652,14 +4661,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4685,11 +4694,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4701,14 +4710,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4718,14 +4727,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4734,14 +4743,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4751,11 +4760,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4767,14 +4776,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4784,14 +4793,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4800,14 +4809,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4817,11 +4826,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4850,14 +4859,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4866,14 +4875,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4883,11 +4892,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4899,14 +4908,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4916,11 +4925,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4932,14 +4941,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4949,14 +4958,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4965,14 +4974,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4982,14 +4991,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4998,14 +5007,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5015,14 +5024,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5031,14 +5040,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5048,11 +5057,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -5064,14 +5073,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5081,14 +5090,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5097,14 +5106,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5114,11 +5123,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -5130,31 +5139,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>151</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5163,14 +5172,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5180,14 +5189,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>32</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5196,28 +5205,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>27</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>110</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5236,7 +5245,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5246,14 +5255,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5262,14 +5271,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5279,11 +5288,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>110</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>25</v>
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5312,14 +5321,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>249</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5328,14 +5337,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>31</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5345,14 +5354,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>96</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5361,31 +5370,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5394,14 +5403,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5411,14 +5420,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>155</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5427,7 +5436,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5440,18 +5449,18 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5460,14 +5469,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5477,14 +5486,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>25</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5493,28 +5502,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>27</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>151</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>25</v>
@@ -5526,31 +5535,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>333</v>
+        <v>91</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5559,14 +5568,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5576,14 +5585,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>338</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5592,14 +5601,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5609,14 +5618,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>337</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5625,14 +5634,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>342</v>
+        <v>27</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5642,14 +5651,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>47</v>
+        <v>340</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>48</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>25</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5658,14 +5667,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>27</v>
+        <v>343</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5675,14 +5684,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>344</v>
+        <v>14</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5691,14 +5700,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>27</v>
+        <v>345</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5708,14 +5717,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>318</v>
+        <v>47</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>340</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5741,14 +5750,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>347</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5764,7 +5773,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5774,14 +5783,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>350</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>25</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5790,14 +5799,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>352</v>
+        <v>27</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5807,14 +5816,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>340</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>25</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5823,14 +5832,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>352</v>
+        <v>139</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5840,11 +5849,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>25</v>
@@ -5863,7 +5872,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>27</v>
+        <v>355</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5873,14 +5882,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>349</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>48</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5889,14 +5898,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>91</v>
+        <v>355</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5906,11 +5915,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>25</v>
@@ -5922,14 +5931,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>333</v>
+        <v>27</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5939,14 +5948,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>95</v>
+        <v>352</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>31</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5955,14 +5964,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5972,11 +5981,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>266</v>
+        <v>359</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>215</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>25</v>
@@ -5988,14 +5997,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6005,14 +6014,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>334</v>
+        <v>95</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6021,7 +6030,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6038,49 +6047,115 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>363</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>343</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>35</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>337</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q137" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>10750.81</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>362</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
-        <v>363</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c t="s" r="Q138" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
         <v>364</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>31</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>35</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>337</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>10832.81</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
+        <v>365</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
+        <v>366</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>367</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6744,10 +6819,20 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>46.5300</t>
   </si>
   <si>
+    <t>ATROZEMB 20/10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>75.2400</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -554,6 +563,15 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>FLAZACOR 6 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>FORFLOZIN 10MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -752,9 +770,6 @@
     <t>76.00</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -1106,7 +1121,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 8:56 PM</t>
+    <t>Tuesday, 7 October, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2077,7 +2092,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2110,7 +2125,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2120,11 +2135,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2136,14 +2151,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2160,7 +2175,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2176,7 +2191,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2209,7 +2224,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2226,7 +2241,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2242,7 +2257,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2259,7 +2274,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2275,13 +2290,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2292,7 +2307,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2308,13 +2323,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2374,7 +2389,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2384,14 +2399,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2400,14 +2415,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2440,7 +2455,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2450,14 +2465,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2483,14 +2498,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2523,7 +2538,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2539,7 +2554,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2556,7 +2571,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2572,7 +2587,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2605,7 +2620,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2622,7 +2637,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2638,7 +2653,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2655,7 +2670,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2671,7 +2686,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2704,7 +2719,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2714,14 +2729,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2747,14 +2762,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2763,14 +2778,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2787,7 +2802,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2803,13 +2818,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2820,7 +2835,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2836,13 +2851,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2869,7 +2884,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2886,7 +2901,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2902,7 +2917,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2912,11 +2927,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>39</v>
@@ -2928,31 +2943,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2961,31 +2976,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3011,14 +3026,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>142</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3034,7 +3049,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3044,14 +3059,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3084,7 +3099,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3100,7 +3115,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3110,14 +3125,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3126,14 +3141,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3143,14 +3158,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3199,7 +3214,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3209,14 +3224,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3225,31 +3240,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3265,13 +3280,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3298,7 +3313,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3308,14 +3323,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3324,31 +3339,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3357,31 +3372,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3397,7 +3412,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3407,7 +3422,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3430,7 +3445,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3447,7 +3462,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3463,13 +3478,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3480,7 +3495,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3496,13 +3511,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3529,7 +3544,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3546,7 +3561,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3562,7 +3577,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3579,7 +3594,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3595,7 +3610,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3612,7 +3627,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3638,11 +3653,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3654,14 +3669,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3671,11 +3686,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3687,7 +3702,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3704,14 +3719,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>198</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3720,14 +3735,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3737,7 +3752,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3770,14 +3785,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>204</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3793,7 +3808,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3803,14 +3818,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3836,11 +3851,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3852,28 +3867,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3885,7 +3900,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3902,11 +3917,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3918,31 +3933,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3951,14 +3966,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3968,11 +3983,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3984,14 +3999,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4001,14 +4016,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4017,14 +4032,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4034,14 +4049,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4050,14 +4065,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4071,7 +4086,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -4083,14 +4098,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4100,11 +4115,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4133,14 +4148,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4149,14 +4164,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4166,11 +4181,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4182,31 +4197,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4232,14 +4247,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4255,24 +4270,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4281,14 +4296,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4298,14 +4313,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4314,7 +4329,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4331,14 +4346,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4347,14 +4362,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4364,14 +4379,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4380,14 +4395,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4397,14 +4412,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4413,14 +4428,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4430,14 +4445,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4446,31 +4461,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4486,7 +4501,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4496,11 +4511,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4519,24 +4534,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4545,14 +4560,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4562,14 +4577,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4585,7 +4600,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4595,14 +4610,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4628,14 +4643,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4644,14 +4659,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4661,14 +4676,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4677,14 +4692,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4694,14 +4709,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4710,14 +4725,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4727,14 +4742,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4750,7 +4765,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4764,7 +4779,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4776,14 +4791,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4793,14 +4808,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4816,7 +4831,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4830,7 +4845,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4842,14 +4857,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4859,14 +4874,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4875,14 +4890,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4892,11 +4907,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4908,14 +4923,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4925,14 +4940,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4941,14 +4956,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4958,11 +4973,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4974,14 +4989,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4991,11 +5006,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5007,14 +5022,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5024,14 +5039,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5040,14 +5055,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5057,14 +5072,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5073,14 +5088,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5090,14 +5105,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5106,14 +5121,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5123,11 +5138,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -5146,7 +5161,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5156,14 +5171,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5172,14 +5187,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5189,11 +5204,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5212,24 +5227,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5238,14 +5253,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5255,14 +5270,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>33</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5271,28 +5286,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>110</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>25</v>
@@ -5304,14 +5319,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5321,14 +5336,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>313</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5344,7 +5359,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5354,11 +5369,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>113</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>25</v>
@@ -5370,14 +5385,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5387,14 +5402,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5410,7 +5425,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5420,14 +5435,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>96</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5443,24 +5458,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5469,14 +5484,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5490,10 +5505,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>157</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5502,7 +5517,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5515,18 +5530,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>151</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>211</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5535,14 +5550,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5552,14 +5567,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5568,28 +5583,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>333</v>
+        <v>27</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>334</v>
+        <v>154</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>25</v>
@@ -5601,31 +5616,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>336</v>
+        <v>94</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5634,14 +5649,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5651,14 +5666,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>341</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5667,14 +5682,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5684,14 +5699,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5707,7 +5722,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>345</v>
+        <v>27</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5717,14 +5732,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>47</v>
+        <v>345</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>48</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5733,14 +5748,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>27</v>
+        <v>348</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5750,14 +5765,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>347</v>
+        <v>14</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>243</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5766,14 +5781,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>27</v>
+        <v>350</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5783,14 +5798,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>343</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5799,7 +5814,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5816,14 +5831,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>350</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5832,14 +5847,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5849,14 +5864,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>353</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>25</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5872,7 +5887,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>355</v>
+        <v>27</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5882,14 +5897,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>14</v>
+        <v>345</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>25</v>
+        <v>355</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5905,7 +5920,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>355</v>
+        <v>142</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5915,11 +5930,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>25</v>
@@ -5931,14 +5946,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>27</v>
+        <v>360</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5948,14 +5963,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>48</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5964,14 +5979,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>91</v>
+        <v>360</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5981,11 +5996,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>25</v>
@@ -5997,14 +6012,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>336</v>
+        <v>27</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6014,14 +6029,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>95</v>
+        <v>357</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>31</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6030,14 +6045,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6047,11 +6062,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>269</v>
+        <v>364</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>219</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>25</v>
@@ -6063,14 +6078,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6080,14 +6095,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6096,7 +6111,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6113,49 +6128,115 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>368</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>355</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>35</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>342</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>343</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>369</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>31</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>35</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>342</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q139" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="140" ht="24.75" customHeight="1">
-      <c r="P140" s="13">
-        <v>10832.81</v>
-      </c>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="14">
-        <v>365</v>
-      </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c t="s" r="G141" s="15">
-        <v>366</v>
-      </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c t="s" r="K141" s="17">
-        <v>367</v>
-      </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
+      <c t="s" r="Q141" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>10966.049999999999</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>370</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>371</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>372</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="677">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6829,10 +6910,20 @@
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
     <mergeCell ref="N139:O139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-07_00-00.xlsx
+++ b/DaySale_2025-10-07_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>ARTHROFAST 150MG 14 M.R. TABLETS</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -680,6 +689,9 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -701,6 +713,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>MULTI-RELAX 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
@@ -818,9 +836,6 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>42.0000</t>
   </si>
   <si>
@@ -911,6 +926,15 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>TAVACIN 750MG 5 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>TOBRADEX EYE OINT. 3.5 GM</t>
   </si>
   <si>
@@ -965,9 +989,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 1% EMULGEL 50 GM</t>
   </si>
   <si>
@@ -1073,6 +1094,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>18:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1121,7 +1145,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Tuesday, 7 October, 2025 9:01 PM</t>
+    <t>Tuesday, 7 October, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2059,7 +2083,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2092,7 +2116,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2125,7 +2149,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2158,7 +2182,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2168,11 +2192,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2184,14 +2208,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2208,7 +2232,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2224,7 +2248,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2257,7 +2281,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2274,7 +2298,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2290,7 +2314,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2307,7 +2331,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2323,13 +2347,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2340,7 +2364,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2356,13 +2380,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2422,7 +2446,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2432,14 +2456,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2448,14 +2472,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2488,7 +2512,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2498,14 +2522,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2531,14 +2555,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2547,14 +2571,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2571,7 +2595,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2587,7 +2611,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2604,7 +2628,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2620,7 +2644,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2653,7 +2677,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2670,7 +2694,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2686,7 +2710,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2703,7 +2727,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2719,7 +2743,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2752,7 +2776,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2762,14 +2786,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2795,14 +2819,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2811,14 +2835,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2835,7 +2859,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2851,13 +2875,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2868,7 +2892,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2884,13 +2908,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2917,7 +2941,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2934,7 +2958,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2950,7 +2974,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2960,11 +2984,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>39</v>
@@ -2976,31 +3000,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3009,31 +3033,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3042,14 +3066,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3059,14 +3083,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3082,7 +3106,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3092,14 +3116,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3132,7 +3156,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3148,7 +3172,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3158,14 +3182,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3174,14 +3198,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3191,14 +3215,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3224,14 +3248,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>160</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3247,7 +3271,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3257,14 +3281,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3273,31 +3297,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3313,13 +3337,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3346,7 +3370,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3356,14 +3380,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3372,31 +3396,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3405,31 +3429,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3445,7 +3469,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3455,7 +3479,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3478,7 +3502,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3495,7 +3519,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3511,13 +3535,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3528,7 +3552,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3544,13 +3568,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3561,7 +3585,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3577,7 +3601,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3594,7 +3618,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3610,7 +3634,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3627,7 +3651,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3643,7 +3667,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3660,7 +3684,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3676,7 +3700,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3693,7 +3717,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3709,7 +3733,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3719,14 +3743,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3735,14 +3759,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3752,14 +3776,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3768,14 +3792,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3785,14 +3809,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3808,7 +3832,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3818,14 +3842,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>207</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3841,7 +3865,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3851,14 +3875,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3884,11 +3908,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3900,14 +3924,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3917,11 +3941,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3933,7 +3957,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3946,15 +3970,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3979,15 +4003,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3999,14 +4023,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4016,14 +4040,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4032,14 +4056,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4049,14 +4073,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4065,14 +4089,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4082,11 +4106,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -4098,14 +4122,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4115,14 +4139,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4131,14 +4155,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4155,7 +4179,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4171,7 +4195,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4181,14 +4205,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4197,14 +4221,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4214,14 +4238,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4230,14 +4254,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4247,11 +4271,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4263,31 +4287,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4296,14 +4320,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4313,14 +4337,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4336,24 +4360,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4362,14 +4386,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4379,14 +4403,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4395,7 +4419,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4412,14 +4436,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4428,14 +4452,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4445,14 +4469,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4461,14 +4485,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4478,14 +4502,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4494,14 +4518,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4511,14 +4535,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4527,31 +4551,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4560,14 +4584,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4577,11 +4601,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4593,31 +4617,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4626,14 +4650,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4643,14 +4667,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4659,14 +4683,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4676,14 +4700,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4692,7 +4716,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4709,14 +4733,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4725,14 +4749,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+ 